--- a/data/lossofsale_sg_edappally.xlsx
+++ b/data/lossofsale_sg_edappally.xlsx
@@ -209,9 +209,9 @@
     <col min="6" max="6" width="25.650000000000002" customWidth="1"/>
     <col min="7" max="7" width="8.100000000000001" customWidth="1"/>
     <col min="8" max="8" width="32.400000000000006" customWidth="1"/>
-    <col min="9" max="9" width="37.800000000000004" customWidth="1"/>
+    <col min="9" max="9" width="39.150000000000006" customWidth="1"/>
     <col min="10" max="10" width="16.200000000000003" customWidth="1"/>
-    <col min="11" max="11" width="28.35" customWidth="1"/>
+    <col min="11" max="11" width="37.800000000000004" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -284,20 +284,20 @@
       </c>
       <c t="inlineStr" r="B3">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Jebin</t>
+          <t xml:space="preserve">Arun</t>
         </is>
       </c>
       <c r="D3" s="65">
-        <v>8124004551</v>
+        <v>9937725569</v>
       </c>
       <c t="inlineStr" r="E3">
         <is>
-          <t xml:space="preserve">14-01-2026</t>
+          <t xml:space="preserve">31-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F3">
@@ -312,12 +312,12 @@
       </c>
       <c t="inlineStr" r="H3">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I3">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
         </is>
       </c>
       <c t="inlineStr" r="J3">
@@ -327,7 +327,7 @@
       </c>
       <c t="inlineStr" r="K3">
         <is>
-          <t xml:space="preserve">they will come sunday</t>
+          <t xml:space="preserve">he didn’t suit the pant size</t>
         </is>
       </c>
     </row>
@@ -337,25 +337,25 @@
       </c>
       <c t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C4">
         <is>
-          <t xml:space="preserve">benadict</t>
+          <t xml:space="preserve">Jithin</t>
         </is>
       </c>
       <c r="D4" s="65">
-        <v>9562474208</v>
+        <v>9562958782</v>
       </c>
       <c t="inlineStr" r="E4">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">27-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F4">
         <is>
-          <t xml:space="preserve">Nithin binoy</t>
+          <t xml:space="preserve">Althaf A</t>
         </is>
       </c>
       <c t="inlineStr" r="G4">
@@ -370,7 +370,7 @@
       </c>
       <c t="inlineStr" r="I4">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J4">
@@ -380,7 +380,7 @@
       </c>
       <c t="inlineStr" r="K4">
         <is>
-          <t xml:space="preserve">loss</t>
+          <t xml:space="preserve">bulk order</t>
         </is>
       </c>
     </row>
@@ -390,25 +390,25 @@
       </c>
       <c t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C5">
         <is>
-          <t xml:space="preserve">toy</t>
+          <t xml:space="preserve">Nithin</t>
         </is>
       </c>
       <c r="D5" s="65">
-        <v>9846105212</v>
+        <v>9188031437</v>
       </c>
       <c t="inlineStr" r="E5">
         <is>
-          <t xml:space="preserve">28-12-2025</t>
+          <t xml:space="preserve">26-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F5">
         <is>
-          <t xml:space="preserve">SWAROOP S K</t>
+          <t xml:space="preserve">RAMITH K</t>
         </is>
       </c>
       <c t="inlineStr" r="G5">
@@ -418,12 +418,12 @@
       </c>
       <c t="inlineStr" r="H5">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I5">
         <is>
-          <t xml:space="preserve">SIZE TOO SMALL</t>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
         </is>
       </c>
       <c t="inlineStr" r="J5">
@@ -433,7 +433,7 @@
       </c>
       <c t="inlineStr" r="K5">
         <is>
-          <t xml:space="preserve">.</t>
+          <t xml:space="preserve">Loss</t>
         </is>
       </c>
     </row>
@@ -443,25 +443,25 @@
       </c>
       <c t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C6">
         <is>
-          <t xml:space="preserve">suhail</t>
+          <t xml:space="preserve">melvin</t>
         </is>
       </c>
       <c r="D6" s="65">
-        <v>8137912784</v>
+        <v>9895578570</v>
       </c>
       <c t="inlineStr" r="E6">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">29-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F6">
         <is>
-          <t xml:space="preserve">Mohamed Farseen C S</t>
+          <t xml:space="preserve">ABIN KRISHNA S</t>
         </is>
       </c>
       <c t="inlineStr" r="G6">
@@ -476,7 +476,7 @@
       </c>
       <c t="inlineStr" r="I6">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
         </is>
       </c>
       <c t="inlineStr" r="J6">
@@ -486,7 +486,7 @@
       </c>
       <c t="inlineStr" r="K6">
         <is>
-          <t xml:space="preserve">enquiry</t>
+          <t xml:space="preserve">..</t>
         </is>
       </c>
     </row>
@@ -496,25 +496,25 @@
       </c>
       <c t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">15-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C7">
         <is>
-          <t xml:space="preserve">althaf</t>
+          <t xml:space="preserve">Tojin</t>
         </is>
       </c>
       <c r="D7" s="65">
-        <v>7306166226</v>
+        <v>8943034163</v>
       </c>
       <c t="inlineStr" r="E7">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">10-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F7">
         <is>
-          <t xml:space="preserve">Nithin binoy</t>
+          <t xml:space="preserve">Althaf A</t>
         </is>
       </c>
       <c t="inlineStr" r="G7">
@@ -524,22 +524,17 @@
       </c>
       <c t="inlineStr" r="H7">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I7">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J7">
         <is>
           <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K7">
-        <is>
-          <t xml:space="preserve">loss</t>
         </is>
       </c>
     </row>
@@ -549,48 +544,525 @@
       </c>
       <c t="inlineStr" r="B8">
         <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C8">
+        <is>
+          <t xml:space="preserve">anush</t>
+        </is>
+      </c>
+      <c r="D8" s="65">
+        <v>8086462505</v>
+      </c>
+      <c t="inlineStr" r="E8">
+        <is>
+          <t xml:space="preserve">18-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F8">
+        <is>
+          <t xml:space="preserve">AKSHAYDAS.M</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G8">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H8">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I8">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J8">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K8">
+        <is>
+          <t xml:space="preserve">kurutha</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="65">
+        <v>7</v>
+      </c>
+      <c t="inlineStr" r="B9">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C9">
+        <is>
+          <t xml:space="preserve">Abraham</t>
+        </is>
+      </c>
+      <c r="D9" s="65">
+        <v>9747793966</v>
+      </c>
+      <c t="inlineStr" r="E9">
+        <is>
+          <t xml:space="preserve">10-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F9">
+        <is>
+          <t xml:space="preserve">Althaf A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G9">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H9">
+        <is>
+          <t xml:space="preserve">PRICING</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I9">
+        <is>
+          <t xml:space="preserve">RENT TO HIGH</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J9">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K9">
+        <is>
+          <t xml:space="preserve">.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="65">
+        <v>8</v>
+      </c>
+      <c t="inlineStr" r="B10">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C10">
+        <is>
+          <t xml:space="preserve">Ashik</t>
+        </is>
+      </c>
+      <c r="D10" s="65">
+        <v>9037260665</v>
+      </c>
+      <c t="inlineStr" r="E10">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F10">
+        <is>
+          <t xml:space="preserve">Althaf A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G10">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H10">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I10">
+        <is>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J10">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K10">
+        <is>
+          <t xml:space="preserve">.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="65">
+        <v>9</v>
+      </c>
+      <c t="inlineStr" r="B11">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C11">
+        <is>
+          <t xml:space="preserve">sandeep</t>
+        </is>
+      </c>
+      <c r="D11" s="65">
+        <v>9947153224</v>
+      </c>
+      <c t="inlineStr" r="E11">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F11">
+        <is>
+          <t xml:space="preserve">Nithin binoy</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G11">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H11">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I11">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J11">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K11">
+        <is>
+          <t xml:space="preserve">loos</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="65">
+        <v>10</v>
+      </c>
+      <c t="inlineStr" r="B12">
+        <is>
           <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="C8">
+      <c t="inlineStr" r="C12">
+        <is>
+          <t xml:space="preserve">Jebin</t>
+        </is>
+      </c>
+      <c r="D12" s="65">
+        <v>8124004551</v>
+      </c>
+      <c t="inlineStr" r="E12">
+        <is>
+          <t xml:space="preserve">14-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F12">
+        <is>
+          <t xml:space="preserve">Althaf A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G12">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H12">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I12">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J12">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K12">
+        <is>
+          <t xml:space="preserve">they will come sunday</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="65">
+        <v>11</v>
+      </c>
+      <c t="inlineStr" r="B13">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C13">
+        <is>
+          <t xml:space="preserve">benadict</t>
+        </is>
+      </c>
+      <c r="D13" s="65">
+        <v>9562474208</v>
+      </c>
+      <c t="inlineStr" r="E13">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F13">
+        <is>
+          <t xml:space="preserve">Nithin binoy</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G13">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H13">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I13">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J13">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K13">
+        <is>
+          <t xml:space="preserve">loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="65">
+        <v>12</v>
+      </c>
+      <c t="inlineStr" r="B14">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C14">
+        <is>
+          <t xml:space="preserve">toy</t>
+        </is>
+      </c>
+      <c r="D14" s="65">
+        <v>9846105212</v>
+      </c>
+      <c t="inlineStr" r="E14">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F14">
+        <is>
+          <t xml:space="preserve">SWAROOP S K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G14">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H14">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I14">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J14">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K14">
+        <is>
+          <t xml:space="preserve">.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="65">
+        <v>13</v>
+      </c>
+      <c t="inlineStr" r="B15">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C15">
+        <is>
+          <t xml:space="preserve">suhail</t>
+        </is>
+      </c>
+      <c r="D15" s="65">
+        <v>8137912784</v>
+      </c>
+      <c t="inlineStr" r="E15">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F15">
+        <is>
+          <t xml:space="preserve">Mohamed Farseen C S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G15">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H15">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I15">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J15">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K15">
+        <is>
+          <t xml:space="preserve">enquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="65">
+        <v>14</v>
+      </c>
+      <c t="inlineStr" r="B16">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C16">
+        <is>
+          <t xml:space="preserve">althaf</t>
+        </is>
+      </c>
+      <c r="D16" s="65">
+        <v>7306166226</v>
+      </c>
+      <c t="inlineStr" r="E16">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F16">
+        <is>
+          <t xml:space="preserve">Nithin binoy</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G16">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H16">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I16">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J16">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K16">
+        <is>
+          <t xml:space="preserve">loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="65">
+        <v>15</v>
+      </c>
+      <c t="inlineStr" r="B17">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C17">
         <is>
           <t xml:space="preserve">naveen</t>
         </is>
       </c>
-      <c r="D8" s="65">
+      <c r="D17" s="65">
         <v>8281044850</v>
       </c>
-      <c t="inlineStr" r="E8">
+      <c t="inlineStr" r="E17">
         <is>
           <t xml:space="preserve">08-01-2026</t>
         </is>
       </c>
-      <c t="inlineStr" r="F8">
+      <c t="inlineStr" r="F17">
         <is>
           <t xml:space="preserve">ABIN KRISHNA S</t>
         </is>
       </c>
-      <c t="inlineStr" r="G8">
-        <is>
-          <t xml:space="preserve">Loss</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H8">
+      <c t="inlineStr" r="G17">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H17">
         <is>
           <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
-      <c t="inlineStr" r="I8">
+      <c t="inlineStr" r="I17">
         <is>
           <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
-      <c t="inlineStr" r="J8">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K8">
+      <c t="inlineStr" r="J17">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K17">
         <is>
           <t xml:space="preserve">..</t>
         </is>

--- a/data/lossofsale_sg_edappally.xlsx
+++ b/data/lossofsale_sg_edappally.xlsx
@@ -211,7 +211,7 @@
     <col min="8" max="8" width="32.400000000000006" customWidth="1"/>
     <col min="9" max="9" width="39.150000000000006" customWidth="1"/>
     <col min="10" max="10" width="16.200000000000003" customWidth="1"/>
-    <col min="11" max="11" width="37.800000000000004" customWidth="1"/>
+    <col min="11" max="11" width="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -284,20 +284,20 @@
       </c>
       <c t="inlineStr" r="B3">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">10-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Arun</t>
+          <t xml:space="preserve">Mini</t>
         </is>
       </c>
       <c r="D3" s="65">
-        <v>9937725569</v>
+        <v>9496550115</v>
       </c>
       <c t="inlineStr" r="E3">
         <is>
-          <t xml:space="preserve">31-12-2025</t>
+          <t xml:space="preserve">27-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F3">
@@ -312,12 +312,12 @@
       </c>
       <c t="inlineStr" r="H3">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I3">
         <is>
-          <t xml:space="preserve">SIZE TOO SMALL</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J3">
@@ -327,7 +327,7 @@
       </c>
       <c t="inlineStr" r="K3">
         <is>
-          <t xml:space="preserve">he didn’t suit the pant size</t>
+          <t xml:space="preserve">.</t>
         </is>
       </c>
     </row>
@@ -337,16 +337,16 @@
       </c>
       <c t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">10-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C4">
         <is>
-          <t xml:space="preserve">Jithin</t>
+          <t xml:space="preserve">benjamine</t>
         </is>
       </c>
       <c r="D4" s="65">
-        <v>9562958782</v>
+        <v>8136964387</v>
       </c>
       <c t="inlineStr" r="E4">
         <is>
@@ -355,7 +355,7 @@
       </c>
       <c t="inlineStr" r="F4">
         <is>
-          <t xml:space="preserve">Althaf A</t>
+          <t xml:space="preserve">ABIN KRISHNA S</t>
         </is>
       </c>
       <c t="inlineStr" r="G4">
@@ -365,12 +365,12 @@
       </c>
       <c t="inlineStr" r="H4">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I4">
         <is>
-          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J4">
@@ -380,7 +380,7 @@
       </c>
       <c t="inlineStr" r="K4">
         <is>
-          <t xml:space="preserve">bulk order</t>
+          <t xml:space="preserve">..</t>
         </is>
       </c>
     </row>
@@ -390,25 +390,25 @@
       </c>
       <c t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">10-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C5">
         <is>
-          <t xml:space="preserve">Nithin</t>
+          <t xml:space="preserve">asif</t>
         </is>
       </c>
       <c r="D5" s="65">
-        <v>9188031437</v>
+        <v>9633126576</v>
       </c>
       <c t="inlineStr" r="E5">
         <is>
-          <t xml:space="preserve">26-01-2026</t>
+          <t xml:space="preserve">28-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F5">
         <is>
-          <t xml:space="preserve">RAMITH K</t>
+          <t xml:space="preserve">ABIN KRISHNA S</t>
         </is>
       </c>
       <c t="inlineStr" r="G5">
@@ -433,7 +433,7 @@
       </c>
       <c t="inlineStr" r="K5">
         <is>
-          <t xml:space="preserve">Loss</t>
+          <t xml:space="preserve">..</t>
         </is>
       </c>
     </row>
@@ -443,25 +443,25 @@
       </c>
       <c t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">10-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C6">
         <is>
-          <t xml:space="preserve">melvin</t>
+          <t xml:space="preserve">alan</t>
         </is>
       </c>
       <c r="D6" s="65">
-        <v>9895578570</v>
+        <v>7994206022</v>
       </c>
       <c t="inlineStr" r="E6">
         <is>
-          <t xml:space="preserve">29-12-2025</t>
+          <t xml:space="preserve">03-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F6">
         <is>
-          <t xml:space="preserve">ABIN KRISHNA S</t>
+          <t xml:space="preserve">AKSHAYDAS.M</t>
         </is>
       </c>
       <c t="inlineStr" r="G6">
@@ -471,12 +471,12 @@
       </c>
       <c t="inlineStr" r="H6">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I6">
         <is>
-          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
         </is>
       </c>
       <c t="inlineStr" r="J6">
@@ -496,20 +496,20 @@
       </c>
       <c t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C7">
         <is>
-          <t xml:space="preserve">Tojin</t>
+          <t xml:space="preserve">Anees</t>
         </is>
       </c>
       <c r="D7" s="65">
-        <v>8943034163</v>
+        <v>9995772300</v>
       </c>
       <c t="inlineStr" r="E7">
         <is>
-          <t xml:space="preserve">10-01-2026</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F7">
@@ -524,17 +524,22 @@
       </c>
       <c t="inlineStr" r="H7">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I7">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J7">
         <is>
           <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K7">
+        <is>
+          <t xml:space="preserve">they were looking for another design</t>
         </is>
       </c>
     </row>
@@ -544,25 +549,25 @@
       </c>
       <c t="inlineStr" r="B8">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C8">
         <is>
-          <t xml:space="preserve">anush</t>
+          <t xml:space="preserve">manu</t>
         </is>
       </c>
       <c r="D8" s="65">
-        <v>8086462505</v>
+        <v>8590372779</v>
       </c>
       <c t="inlineStr" r="E8">
         <is>
-          <t xml:space="preserve">18-01-2026</t>
+          <t xml:space="preserve">28-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F8">
         <is>
-          <t xml:space="preserve">AKSHAYDAS.M</t>
+          <t xml:space="preserve">ABIN KRISHNA S</t>
         </is>
       </c>
       <c t="inlineStr" r="G8">
@@ -572,12 +577,12 @@
       </c>
       <c t="inlineStr" r="H8">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I8">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
         </is>
       </c>
       <c t="inlineStr" r="J8">
@@ -587,7 +592,7 @@
       </c>
       <c t="inlineStr" r="K8">
         <is>
-          <t xml:space="preserve">kurutha</t>
+          <t xml:space="preserve">..</t>
         </is>
       </c>
     </row>
@@ -597,25 +602,25 @@
       </c>
       <c t="inlineStr" r="B9">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C9">
         <is>
-          <t xml:space="preserve">Abraham</t>
+          <t xml:space="preserve">sayid</t>
         </is>
       </c>
       <c r="D9" s="65">
-        <v>9747793966</v>
+        <v>8590825100</v>
       </c>
       <c t="inlineStr" r="E9">
         <is>
-          <t xml:space="preserve">10-01-2026</t>
+          <t xml:space="preserve">25-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F9">
         <is>
-          <t xml:space="preserve">Althaf A</t>
+          <t xml:space="preserve">ABIN KRISHNA S</t>
         </is>
       </c>
       <c t="inlineStr" r="G9">
@@ -625,12 +630,12 @@
       </c>
       <c t="inlineStr" r="H9">
         <is>
-          <t xml:space="preserve">PRICING</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I9">
         <is>
-          <t xml:space="preserve">RENT TO HIGH</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J9">
@@ -640,7 +645,7 @@
       </c>
       <c t="inlineStr" r="K9">
         <is>
-          <t xml:space="preserve">.</t>
+          <t xml:space="preserve">..</t>
         </is>
       </c>
     </row>
@@ -650,20 +655,20 @@
       </c>
       <c t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C10">
         <is>
-          <t xml:space="preserve">Ashik</t>
+          <t xml:space="preserve">Amith</t>
         </is>
       </c>
       <c r="D10" s="65">
-        <v>9037260665</v>
+        <v>8281546625</v>
       </c>
       <c t="inlineStr" r="E10">
         <is>
-          <t xml:space="preserve">22-12-2025</t>
+          <t xml:space="preserve">31-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F10">
@@ -678,12 +683,12 @@
       </c>
       <c t="inlineStr" r="H10">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I10">
         <is>
-          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J10">
@@ -693,7 +698,7 @@
       </c>
       <c t="inlineStr" r="K10">
         <is>
-          <t xml:space="preserve">.</t>
+          <t xml:space="preserve">they will inform tomorrow</t>
         </is>
       </c>
     </row>
@@ -703,25 +708,25 @@
       </c>
       <c t="inlineStr" r="B11">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C11">
         <is>
-          <t xml:space="preserve">sandeep</t>
+          <t xml:space="preserve">afsal</t>
         </is>
       </c>
       <c r="D11" s="65">
-        <v>9947153224</v>
+        <v>9895939667</v>
       </c>
       <c t="inlineStr" r="E11">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">08-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F11">
         <is>
-          <t xml:space="preserve">Nithin binoy</t>
+          <t xml:space="preserve">AKSHAYDAS.M</t>
         </is>
       </c>
       <c t="inlineStr" r="G11">
@@ -736,7 +741,7 @@
       </c>
       <c t="inlineStr" r="I11">
         <is>
-          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J11">
@@ -746,7 +751,7 @@
       </c>
       <c t="inlineStr" r="K11">
         <is>
-          <t xml:space="preserve">loos</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
     </row>
@@ -756,25 +761,25 @@
       </c>
       <c t="inlineStr" r="B12">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C12">
         <is>
-          <t xml:space="preserve">Jebin</t>
+          <t xml:space="preserve">Ajumal</t>
         </is>
       </c>
       <c r="D12" s="65">
-        <v>8124004551</v>
+        <v>8089744330</v>
       </c>
       <c t="inlineStr" r="E12">
         <is>
-          <t xml:space="preserve">14-01-2026</t>
+          <t xml:space="preserve">01-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F12">
         <is>
-          <t xml:space="preserve">Althaf A</t>
+          <t xml:space="preserve">SWAROOP S K</t>
         </is>
       </c>
       <c t="inlineStr" r="G12">
@@ -799,7 +804,7 @@
       </c>
       <c t="inlineStr" r="K12">
         <is>
-          <t xml:space="preserve">they will come sunday</t>
+          <t xml:space="preserve">.</t>
         </is>
       </c>
     </row>
@@ -809,25 +814,25 @@
       </c>
       <c t="inlineStr" r="B13">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C13">
         <is>
-          <t xml:space="preserve">benadict</t>
+          <t xml:space="preserve">sharath</t>
         </is>
       </c>
       <c r="D13" s="65">
-        <v>9562474208</v>
+        <v>8075922593</v>
       </c>
       <c t="inlineStr" r="E13">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F13">
         <is>
-          <t xml:space="preserve">Nithin binoy</t>
+          <t xml:space="preserve">AKSHAYDAS.M</t>
         </is>
       </c>
       <c t="inlineStr" r="G13">
@@ -842,7 +847,7 @@
       </c>
       <c t="inlineStr" r="I13">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J13">
@@ -852,7 +857,7 @@
       </c>
       <c t="inlineStr" r="K13">
         <is>
-          <t xml:space="preserve">loss</t>
+          <t xml:space="preserve">..</t>
         </is>
       </c>
     </row>
@@ -862,25 +867,25 @@
       </c>
       <c t="inlineStr" r="B14">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C14">
         <is>
-          <t xml:space="preserve">toy</t>
+          <t xml:space="preserve">joseph</t>
         </is>
       </c>
       <c r="D14" s="65">
-        <v>9846105212</v>
+        <v>6282396016</v>
       </c>
       <c t="inlineStr" r="E14">
         <is>
-          <t xml:space="preserve">28-12-2025</t>
+          <t xml:space="preserve">05-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F14">
         <is>
-          <t xml:space="preserve">SWAROOP S K</t>
+          <t xml:space="preserve">ABIN KRISHNA S</t>
         </is>
       </c>
       <c t="inlineStr" r="G14">
@@ -905,7 +910,7 @@
       </c>
       <c t="inlineStr" r="K14">
         <is>
-          <t xml:space="preserve">.</t>
+          <t xml:space="preserve">48size</t>
         </is>
       </c>
     </row>
@@ -915,25 +920,25 @@
       </c>
       <c t="inlineStr" r="B15">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C15">
         <is>
-          <t xml:space="preserve">suhail</t>
+          <t xml:space="preserve">adhnana</t>
         </is>
       </c>
       <c r="D15" s="65">
-        <v>8137912784</v>
+        <v>8304923273</v>
       </c>
       <c t="inlineStr" r="E15">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F15">
         <is>
-          <t xml:space="preserve">Mohamed Farseen C S</t>
+          <t xml:space="preserve">Vishnu prasad. P</t>
         </is>
       </c>
       <c t="inlineStr" r="G15">
@@ -958,7 +963,7 @@
       </c>
       <c t="inlineStr" r="K15">
         <is>
-          <t xml:space="preserve">enquiry</t>
+          <t xml:space="preserve">size issue</t>
         </is>
       </c>
     </row>
@@ -968,25 +973,25 @@
       </c>
       <c t="inlineStr" r="B16">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C16">
         <is>
-          <t xml:space="preserve">althaf</t>
+          <t xml:space="preserve">vivek</t>
         </is>
       </c>
       <c r="D16" s="65">
-        <v>7306166226</v>
+        <v>8891349992</v>
       </c>
       <c t="inlineStr" r="E16">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">10-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F16">
         <is>
-          <t xml:space="preserve">Nithin binoy</t>
+          <t xml:space="preserve">ABIN KRISHNA S</t>
         </is>
       </c>
       <c t="inlineStr" r="G16">
@@ -996,12 +1001,12 @@
       </c>
       <c t="inlineStr" r="H16">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I16">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
         </is>
       </c>
       <c t="inlineStr" r="J16">
@@ -1011,7 +1016,7 @@
       </c>
       <c t="inlineStr" r="K16">
         <is>
-          <t xml:space="preserve">loss</t>
+          <t xml:space="preserve">..</t>
         </is>
       </c>
     </row>
@@ -1021,50 +1026,2271 @@
       </c>
       <c t="inlineStr" r="B17">
         <is>
+          <t xml:space="preserve">13-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C17">
+        <is>
+          <t xml:space="preserve">jiby</t>
+        </is>
+      </c>
+      <c r="D17" s="65">
+        <v>9946814700</v>
+      </c>
+      <c t="inlineStr" r="E17">
+        <is>
           <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="C17">
+      <c t="inlineStr" r="F17">
+        <is>
+          <t xml:space="preserve">ABIN KRISHNA S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G17">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H17">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I17">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J17">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K17">
+        <is>
+          <t xml:space="preserve">..</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="65">
+        <v>16</v>
+      </c>
+      <c t="inlineStr" r="B18">
+        <is>
+          <t xml:space="preserve">13-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C18">
+        <is>
+          <t xml:space="preserve">anwar</t>
+        </is>
+      </c>
+      <c r="D18" s="65">
+        <v>6282111567</v>
+      </c>
+      <c t="inlineStr" r="E18">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F18">
+        <is>
+          <t xml:space="preserve">ABIN KRISHNA S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G18">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H18">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I18">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J18">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K18">
+        <is>
+          <t xml:space="preserve">..</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="65">
+        <v>17</v>
+      </c>
+      <c t="inlineStr" r="B19">
+        <is>
+          <t xml:space="preserve">13-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C19">
+        <is>
+          <t xml:space="preserve">cristy</t>
+        </is>
+      </c>
+      <c r="D19" s="65">
+        <v>7907562960</v>
+      </c>
+      <c t="inlineStr" r="E19">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F19">
+        <is>
+          <t xml:space="preserve">AKSHAYDAS.M</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G19">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H19">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I19">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J19">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K19">
+        <is>
+          <t xml:space="preserve">..</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="65">
+        <v>18</v>
+      </c>
+      <c t="inlineStr" r="B20">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C20">
+        <is>
+          <t xml:space="preserve">Arun</t>
+        </is>
+      </c>
+      <c r="D20" s="65">
+        <v>9937725569</v>
+      </c>
+      <c t="inlineStr" r="E20">
+        <is>
+          <t xml:space="preserve">31-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F20">
+        <is>
+          <t xml:space="preserve">Althaf A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G20">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H20">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I20">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J20">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K20">
+        <is>
+          <t xml:space="preserve">he didn’t suit the pant size</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="65">
+        <v>19</v>
+      </c>
+      <c t="inlineStr" r="B21">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C21">
+        <is>
+          <t xml:space="preserve">Jithin</t>
+        </is>
+      </c>
+      <c r="D21" s="65">
+        <v>9562958782</v>
+      </c>
+      <c t="inlineStr" r="E21">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F21">
+        <is>
+          <t xml:space="preserve">Althaf A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G21">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H21">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I21">
+        <is>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J21">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K21">
+        <is>
+          <t xml:space="preserve">bulk order</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="65">
+        <v>20</v>
+      </c>
+      <c t="inlineStr" r="B22">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C22">
+        <is>
+          <t xml:space="preserve">Nithin</t>
+        </is>
+      </c>
+      <c r="D22" s="65">
+        <v>9188031437</v>
+      </c>
+      <c t="inlineStr" r="E22">
+        <is>
+          <t xml:space="preserve">26-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F22">
+        <is>
+          <t xml:space="preserve">RAMITH K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G22">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H22">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I22">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J22">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K22">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="65">
+        <v>21</v>
+      </c>
+      <c t="inlineStr" r="B23">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C23">
+        <is>
+          <t xml:space="preserve">melvin</t>
+        </is>
+      </c>
+      <c r="D23" s="65">
+        <v>9895578570</v>
+      </c>
+      <c t="inlineStr" r="E23">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F23">
+        <is>
+          <t xml:space="preserve">ABIN KRISHNA S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G23">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H23">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I23">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J23">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K23">
+        <is>
+          <t xml:space="preserve">..</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="65">
+        <v>22</v>
+      </c>
+      <c t="inlineStr" r="B24">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C24">
+        <is>
+          <t xml:space="preserve">Tojin</t>
+        </is>
+      </c>
+      <c r="D24" s="65">
+        <v>8943034163</v>
+      </c>
+      <c t="inlineStr" r="E24">
+        <is>
+          <t xml:space="preserve">10-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F24">
+        <is>
+          <t xml:space="preserve">Althaf A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G24">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H24">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I24">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J24">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="65">
+        <v>23</v>
+      </c>
+      <c t="inlineStr" r="B25">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C25">
+        <is>
+          <t xml:space="preserve">anush</t>
+        </is>
+      </c>
+      <c r="D25" s="65">
+        <v>8086462505</v>
+      </c>
+      <c t="inlineStr" r="E25">
+        <is>
+          <t xml:space="preserve">18-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F25">
+        <is>
+          <t xml:space="preserve">AKSHAYDAS.M</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G25">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H25">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I25">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J25">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K25">
+        <is>
+          <t xml:space="preserve">kurutha</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="65">
+        <v>24</v>
+      </c>
+      <c t="inlineStr" r="B26">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C26">
+        <is>
+          <t xml:space="preserve">Abraham</t>
+        </is>
+      </c>
+      <c r="D26" s="65">
+        <v>9747793966</v>
+      </c>
+      <c t="inlineStr" r="E26">
+        <is>
+          <t xml:space="preserve">10-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F26">
+        <is>
+          <t xml:space="preserve">Althaf A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G26">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H26">
+        <is>
+          <t xml:space="preserve">PRICING</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I26">
+        <is>
+          <t xml:space="preserve">RENT TO HIGH</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J26">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K26">
+        <is>
+          <t xml:space="preserve">.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="65">
+        <v>25</v>
+      </c>
+      <c t="inlineStr" r="B27">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C27">
+        <is>
+          <t xml:space="preserve">Ashik</t>
+        </is>
+      </c>
+      <c r="D27" s="65">
+        <v>9037260665</v>
+      </c>
+      <c t="inlineStr" r="E27">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F27">
+        <is>
+          <t xml:space="preserve">Althaf A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G27">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H27">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I27">
+        <is>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J27">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K27">
+        <is>
+          <t xml:space="preserve">.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="65">
+        <v>26</v>
+      </c>
+      <c t="inlineStr" r="B28">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C28">
+        <is>
+          <t xml:space="preserve">sandeep</t>
+        </is>
+      </c>
+      <c r="D28" s="65">
+        <v>9947153224</v>
+      </c>
+      <c t="inlineStr" r="E28">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F28">
+        <is>
+          <t xml:space="preserve">Nithin binoy</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G28">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H28">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I28">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J28">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K28">
+        <is>
+          <t xml:space="preserve">loos</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="65">
+        <v>27</v>
+      </c>
+      <c t="inlineStr" r="B29">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C29">
+        <is>
+          <t xml:space="preserve">Jebin</t>
+        </is>
+      </c>
+      <c r="D29" s="65">
+        <v>8124004551</v>
+      </c>
+      <c t="inlineStr" r="E29">
+        <is>
+          <t xml:space="preserve">14-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F29">
+        <is>
+          <t xml:space="preserve">Althaf A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G29">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H29">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I29">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J29">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K29">
+        <is>
+          <t xml:space="preserve">they will come sunday</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="65">
+        <v>28</v>
+      </c>
+      <c t="inlineStr" r="B30">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C30">
+        <is>
+          <t xml:space="preserve">benadict</t>
+        </is>
+      </c>
+      <c r="D30" s="65">
+        <v>9562474208</v>
+      </c>
+      <c t="inlineStr" r="E30">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F30">
+        <is>
+          <t xml:space="preserve">Nithin binoy</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G30">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H30">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I30">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J30">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K30">
+        <is>
+          <t xml:space="preserve">loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="65">
+        <v>29</v>
+      </c>
+      <c t="inlineStr" r="B31">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C31">
+        <is>
+          <t xml:space="preserve">toy</t>
+        </is>
+      </c>
+      <c r="D31" s="65">
+        <v>9846105212</v>
+      </c>
+      <c t="inlineStr" r="E31">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F31">
+        <is>
+          <t xml:space="preserve">SWAROOP S K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G31">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H31">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I31">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J31">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K31">
+        <is>
+          <t xml:space="preserve">.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="65">
+        <v>30</v>
+      </c>
+      <c t="inlineStr" r="B32">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C32">
+        <is>
+          <t xml:space="preserve">suhail</t>
+        </is>
+      </c>
+      <c r="D32" s="65">
+        <v>8137912784</v>
+      </c>
+      <c t="inlineStr" r="E32">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F32">
+        <is>
+          <t xml:space="preserve">Mohamed Farseen C S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G32">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H32">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I32">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J32">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K32">
+        <is>
+          <t xml:space="preserve">enquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="65">
+        <v>31</v>
+      </c>
+      <c t="inlineStr" r="B33">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C33">
+        <is>
+          <t xml:space="preserve">althaf</t>
+        </is>
+      </c>
+      <c r="D33" s="65">
+        <v>7306166226</v>
+      </c>
+      <c t="inlineStr" r="E33">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F33">
+        <is>
+          <t xml:space="preserve">Nithin binoy</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G33">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H33">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I33">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J33">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K33">
+        <is>
+          <t xml:space="preserve">loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="65">
+        <v>32</v>
+      </c>
+      <c t="inlineStr" r="B34">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C34">
         <is>
           <t xml:space="preserve">naveen</t>
         </is>
       </c>
-      <c r="D17" s="65">
+      <c r="D34" s="65">
         <v>8281044850</v>
       </c>
-      <c t="inlineStr" r="E17">
+      <c t="inlineStr" r="E34">
         <is>
           <t xml:space="preserve">08-01-2026</t>
         </is>
       </c>
-      <c t="inlineStr" r="F17">
+      <c t="inlineStr" r="F34">
         <is>
           <t xml:space="preserve">ABIN KRISHNA S</t>
         </is>
       </c>
-      <c t="inlineStr" r="G17">
-        <is>
-          <t xml:space="preserve">Loss</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H17">
+      <c t="inlineStr" r="G34">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H34">
         <is>
           <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
-      <c t="inlineStr" r="I17">
+      <c t="inlineStr" r="I34">
         <is>
           <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
-      <c t="inlineStr" r="J17">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K17">
+      <c t="inlineStr" r="J34">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K34">
         <is>
           <t xml:space="preserve">..</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="65">
+        <v>33</v>
+      </c>
+      <c t="inlineStr" r="B35">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C35">
+        <is>
+          <t xml:space="preserve">Umar</t>
+        </is>
+      </c>
+      <c r="D35" s="65">
+        <v>9447767211</v>
+      </c>
+      <c t="inlineStr" r="E35">
+        <is>
+          <t xml:space="preserve">31-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F35">
+        <is>
+          <t xml:space="preserve">Althaf A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G35">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H35">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I35">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J35">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K35">
+        <is>
+          <t xml:space="preserve">family dissaproval they bought new one instead of rental</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="65">
+        <v>34</v>
+      </c>
+      <c t="inlineStr" r="B36">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C36">
+        <is>
+          <t xml:space="preserve">vishnu</t>
+        </is>
+      </c>
+      <c r="D36" s="65">
+        <v>8281533975</v>
+      </c>
+      <c t="inlineStr" r="E36">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F36">
+        <is>
+          <t xml:space="preserve">Mohamed Farseen C S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G36">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H36">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I36">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J36">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K36">
+        <is>
+          <t xml:space="preserve">family disapproved entire model in our store</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="65">
+        <v>35</v>
+      </c>
+      <c t="inlineStr" r="B37">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C37">
+        <is>
+          <t xml:space="preserve">abin</t>
+        </is>
+      </c>
+      <c r="D37" s="65">
+        <v>9895568883</v>
+      </c>
+      <c t="inlineStr" r="E37">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F37">
+        <is>
+          <t xml:space="preserve">Nithin binoy</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G37">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H37">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I37">
+        <is>
+          <t xml:space="preserve">SHOE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J37">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K37">
+        <is>
+          <t xml:space="preserve">size not available 10 or 9 black glossy</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="65">
+        <v>36</v>
+      </c>
+      <c t="inlineStr" r="B38">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C38">
+        <is>
+          <t xml:space="preserve">Gokul</t>
+        </is>
+      </c>
+      <c r="D38" s="65">
+        <v>8129932346</v>
+      </c>
+      <c t="inlineStr" r="E38">
+        <is>
+          <t xml:space="preserve">11-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F38">
+        <is>
+          <t xml:space="preserve">Althaf A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G38">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H38">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I38">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J38">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K38">
+        <is>
+          <t xml:space="preserve">internal issues</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="65">
+        <v>37</v>
+      </c>
+      <c t="inlineStr" r="B39">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C39">
+        <is>
+          <t xml:space="preserve">Amal</t>
+        </is>
+      </c>
+      <c r="D39" s="65">
+        <v>8921643216</v>
+      </c>
+      <c t="inlineStr" r="E39">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F39">
+        <is>
+          <t xml:space="preserve">Althaf A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G39">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H39">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I39">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J39">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K39">
+        <is>
+          <t xml:space="preserve">texture black NP 38 not available another booking</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="65">
+        <v>38</v>
+      </c>
+      <c t="inlineStr" r="B40">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C40">
+        <is>
+          <t xml:space="preserve">isimal</t>
+        </is>
+      </c>
+      <c r="D40" s="65">
+        <v>9895447752</v>
+      </c>
+      <c t="inlineStr" r="E40">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F40">
+        <is>
+          <t xml:space="preserve">SWAROOP S K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G40">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H40">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I40">
+        <is>
+          <t xml:space="preserve">Product Already Booked</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J40">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K40">
+        <is>
+          <t xml:space="preserve">prem black suit size required 36 set.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="65">
+        <v>39</v>
+      </c>
+      <c t="inlineStr" r="B41">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C41">
+        <is>
+          <t xml:space="preserve">vishnu</t>
+        </is>
+      </c>
+      <c r="D41" s="65">
+        <v>9995931223</v>
+      </c>
+      <c t="inlineStr" r="E41">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F41">
+        <is>
+          <t xml:space="preserve">Mohamed Farseen C S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G41">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H41">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I41">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J41">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K41">
+        <is>
+          <t xml:space="preserve">product not available in our store  already booked requirement for premium black shall</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="65">
+        <v>40</v>
+      </c>
+      <c t="inlineStr" r="B42">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C42">
+        <is>
+          <t xml:space="preserve">mini</t>
+        </is>
+      </c>
+      <c r="D42" s="65">
+        <v>9497680722</v>
+      </c>
+      <c t="inlineStr" r="E42">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F42">
+        <is>
+          <t xml:space="preserve">Mohamed Farseen C S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G42">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H42">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I42">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J42">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K42">
+        <is>
+          <t xml:space="preserve">black texture non premium</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="65">
+        <v>41</v>
+      </c>
+      <c t="inlineStr" r="B43">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C43">
+        <is>
+          <t xml:space="preserve">Don jose</t>
+        </is>
+      </c>
+      <c r="D43" s="65">
+        <v>9895574884</v>
+      </c>
+      <c t="inlineStr" r="E43">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F43">
+        <is>
+          <t xml:space="preserve">Mohamed Farseen C S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G43">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H43">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I43">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J43">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K43">
+        <is>
+          <t xml:space="preserve">customer required formal kids suite</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="65">
+        <v>42</v>
+      </c>
+      <c t="inlineStr" r="B44">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C44">
+        <is>
+          <t xml:space="preserve">suthish</t>
+        </is>
+      </c>
+      <c r="D44" s="65">
+        <v>8606277718</v>
+      </c>
+      <c t="inlineStr" r="E44">
+        <is>
+          <t xml:space="preserve">10-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F44">
+        <is>
+          <t xml:space="preserve">SWAROOP S K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G44">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H44">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I44">
+        <is>
+          <t xml:space="preserve">Product Already Booked</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J44">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K44">
+        <is>
+          <t xml:space="preserve">blue shiny 42 size blazer</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="65">
+        <v>43</v>
+      </c>
+      <c t="inlineStr" r="B45">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C45">
+        <is>
+          <t xml:space="preserve">khaleel</t>
+        </is>
+      </c>
+      <c r="D45" s="65">
+        <v>8089977280</v>
+      </c>
+      <c t="inlineStr" r="E45">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F45">
+        <is>
+          <t xml:space="preserve">Mohamed Farseen C S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G45">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H45">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I45">
+        <is>
+          <t xml:space="preserve">BUDGET RESTRICTIONS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J45">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K45">
+        <is>
+          <t xml:space="preserve">bride restrictions</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="65">
+        <v>44</v>
+      </c>
+      <c t="inlineStr" r="B46">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C46">
+        <is>
+          <t xml:space="preserve">Rizwan</t>
+        </is>
+      </c>
+      <c r="D46" s="65">
+        <v>8086945836</v>
+      </c>
+      <c t="inlineStr" r="E46">
+        <is>
+          <t xml:space="preserve">25-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F46">
+        <is>
+          <t xml:space="preserve">Althaf A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G46">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H46">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I46">
+        <is>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J46">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K46">
+        <is>
+          <t xml:space="preserve">black with minimal print</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="65">
+        <v>45</v>
+      </c>
+      <c t="inlineStr" r="B47">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C47">
+        <is>
+          <t xml:space="preserve">Akshay</t>
+        </is>
+      </c>
+      <c r="D47" s="65">
+        <v>9400891463</v>
+      </c>
+      <c t="inlineStr" r="E47">
+        <is>
+          <t xml:space="preserve">09-02-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F47">
+        <is>
+          <t xml:space="preserve">Althaf A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G47">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H47">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I47">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J47">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K47">
+        <is>
+          <t xml:space="preserve">family disapproval</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="65">
+        <v>46</v>
+      </c>
+      <c t="inlineStr" r="B48">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C48">
+        <is>
+          <t xml:space="preserve">musfar</t>
+        </is>
+      </c>
+      <c r="D48" s="65">
+        <v>9061752911</v>
+      </c>
+      <c t="inlineStr" r="E48">
+        <is>
+          <t xml:space="preserve">10-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F48">
+        <is>
+          <t xml:space="preserve">SWAROOP S K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G48">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H48">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I48">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J48">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K48">
+        <is>
+          <t xml:space="preserve">.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="65">
+        <v>47</v>
+      </c>
+      <c t="inlineStr" r="B49">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C49">
+        <is>
+          <t xml:space="preserve">Zayan</t>
+        </is>
+      </c>
+      <c r="D49" s="65">
+        <v>9846858838</v>
+      </c>
+      <c t="inlineStr" r="E49">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F49">
+        <is>
+          <t xml:space="preserve">Binu Augustine</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G49">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H49">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I49">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J49">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K49">
+        <is>
+          <t xml:space="preserve">function is tommorow</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="65">
+        <v>48</v>
+      </c>
+      <c t="inlineStr" r="B50">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C50">
+        <is>
+          <t xml:space="preserve">safeer</t>
+        </is>
+      </c>
+      <c r="D50" s="65">
+        <v>8606123654</v>
+      </c>
+      <c t="inlineStr" r="E50">
+        <is>
+          <t xml:space="preserve">23-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F50">
+        <is>
+          <t xml:space="preserve">SWAROOP S K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G50">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H50">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I50">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J50">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K50">
+        <is>
+          <t xml:space="preserve">.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="65">
+        <v>49</v>
+      </c>
+      <c t="inlineStr" r="B51">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C51">
+        <is>
+          <t xml:space="preserve">keba paul</t>
+        </is>
+      </c>
+      <c r="D51" s="65">
+        <v>8590118941</v>
+      </c>
+      <c t="inlineStr" r="E51">
+        <is>
+          <t xml:space="preserve">26-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F51">
+        <is>
+          <t xml:space="preserve">ABIN KRISHNA S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G51">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H51">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I51">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J51">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K51">
+        <is>
+          <t xml:space="preserve">size not availabe</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="65">
+        <v>50</v>
+      </c>
+      <c t="inlineStr" r="B52">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C52">
+        <is>
+          <t xml:space="preserve">linu</t>
+        </is>
+      </c>
+      <c r="D52" s="65">
+        <v>7293168811</v>
+      </c>
+      <c t="inlineStr" r="E52">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F52">
+        <is>
+          <t xml:space="preserve">ABIN KRISHNA S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G52">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H52">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I52">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J52">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K52">
+        <is>
+          <t xml:space="preserve">enquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="65">
+        <v>51</v>
+      </c>
+      <c t="inlineStr" r="B53">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C53">
+        <is>
+          <t xml:space="preserve">indrajith</t>
+        </is>
+      </c>
+      <c r="D53" s="65">
+        <v>7012239991</v>
+      </c>
+      <c t="inlineStr" r="E53">
+        <is>
+          <t xml:space="preserve">06-05-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F53">
+        <is>
+          <t xml:space="preserve">ABIN KRISHNA S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G53">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H53">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I53">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J53">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K53">
+        <is>
+          <t xml:space="preserve">for enquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="65">
+        <v>52</v>
+      </c>
+      <c t="inlineStr" r="B54">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C54">
+        <is>
+          <t xml:space="preserve">Anoop</t>
+        </is>
+      </c>
+      <c r="D54" s="65">
+        <v>7974143534</v>
+      </c>
+      <c t="inlineStr" r="E54">
+        <is>
+          <t xml:space="preserve">04-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F54">
+        <is>
+          <t xml:space="preserve">SWAROOP S K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G54">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H54">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I54">
+        <is>
+          <t xml:space="preserve">Product Already Booked</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J54">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K54">
+        <is>
+          <t xml:space="preserve">coustomer is conformed product but product is booked. Product - Cream open B/G</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="65">
+        <v>53</v>
+      </c>
+      <c t="inlineStr" r="B55">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C55">
+        <is>
+          <t xml:space="preserve">binoy</t>
+        </is>
+      </c>
+      <c r="D55" s="65">
+        <v>9061762422</v>
+      </c>
+      <c t="inlineStr" r="E55">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F55">
+        <is>
+          <t xml:space="preserve">Mohamed Farseen C S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G55">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H55">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I55">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J55">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K55">
+        <is>
+          <t xml:space="preserve">enquiry for open bengala customer not satisfied</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="65">
+        <v>54</v>
+      </c>
+      <c t="inlineStr" r="B56">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C56">
+        <is>
+          <t xml:space="preserve">pranav</t>
+        </is>
+      </c>
+      <c r="D56" s="65">
+        <v>7012395349</v>
+      </c>
+      <c t="inlineStr" r="E56">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F56">
+        <is>
+          <t xml:space="preserve">Mohamed Farseen C S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G56">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H56">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I56">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J56">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K56">
+        <is>
+          <t xml:space="preserve">required model not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="65">
+        <v>55</v>
+      </c>
+      <c t="inlineStr" r="B57">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C57">
+        <is>
+          <t xml:space="preserve">vishnu</t>
+        </is>
+      </c>
+      <c r="D57" s="65">
+        <v>8129349296</v>
+      </c>
+      <c t="inlineStr" r="E57">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F57">
+        <is>
+          <t xml:space="preserve">SWAROOP S K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G57">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H57">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I57">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J57">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K57">
+        <is>
+          <t xml:space="preserve">Family problem Will be come</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="65">
+        <v>56</v>
+      </c>
+      <c t="inlineStr" r="B58">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C58">
+        <is>
+          <t xml:space="preserve">thanveer</t>
+        </is>
+      </c>
+      <c r="D58" s="65">
+        <v>9947874867</v>
+      </c>
+      <c t="inlineStr" r="E58">
+        <is>
+          <t xml:space="preserve">07-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F58">
+        <is>
+          <t xml:space="preserve">Binu Augustine</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G58">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H58">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I58">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J58">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K58">
+        <is>
+          <t xml:space="preserve">.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="65">
+        <v>57</v>
+      </c>
+      <c t="inlineStr" r="B59">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C59">
+        <is>
+          <t xml:space="preserve">tom</t>
+        </is>
+      </c>
+      <c r="D59" s="65">
+        <v>8281692848</v>
+      </c>
+      <c t="inlineStr" r="E59">
+        <is>
+          <t xml:space="preserve">03-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F59">
+        <is>
+          <t xml:space="preserve">Binu Augustine</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G59">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H59">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I59">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J59">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K59">
+        <is>
+          <t xml:space="preserve">.</t>
         </is>
       </c>
     </row>

--- a/data/lossofsale_sg_edappally.xlsx
+++ b/data/lossofsale_sg_edappally.xlsx
@@ -554,20 +554,20 @@
       </c>
       <c t="inlineStr" r="C8">
         <is>
-          <t xml:space="preserve">manu</t>
+          <t xml:space="preserve">MELVIN</t>
         </is>
       </c>
       <c r="D8" s="65">
-        <v>8590372779</v>
+        <v>9496952220</v>
       </c>
       <c t="inlineStr" r="E8">
         <is>
-          <t xml:space="preserve">28-12-2025</t>
+          <t xml:space="preserve">01-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F8">
         <is>
-          <t xml:space="preserve">ABIN KRISHNA S</t>
+          <t xml:space="preserve">Vishnu Raj</t>
         </is>
       </c>
       <c t="inlineStr" r="G8">
@@ -577,12 +577,12 @@
       </c>
       <c t="inlineStr" r="H8">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I8">
         <is>
-          <t xml:space="preserve">SIZE TOO SMALL</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J8">
@@ -592,7 +592,7 @@
       </c>
       <c t="inlineStr" r="K8">
         <is>
-          <t xml:space="preserve">..</t>
+          <t xml:space="preserve">KURTHA BULK SIZE NOT CONFIRM VISIT AGAIN</t>
         </is>
       </c>
     </row>
@@ -607,15 +607,15 @@
       </c>
       <c t="inlineStr" r="C9">
         <is>
-          <t xml:space="preserve">sayid</t>
+          <t xml:space="preserve">manu</t>
         </is>
       </c>
       <c r="D9" s="65">
-        <v>8590825100</v>
+        <v>8590372779</v>
       </c>
       <c t="inlineStr" r="E9">
         <is>
-          <t xml:space="preserve">25-01-2026</t>
+          <t xml:space="preserve">28-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F9">
@@ -630,12 +630,12 @@
       </c>
       <c t="inlineStr" r="H9">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I9">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
         </is>
       </c>
       <c t="inlineStr" r="J9">
@@ -660,20 +660,20 @@
       </c>
       <c t="inlineStr" r="C10">
         <is>
-          <t xml:space="preserve">Amith</t>
+          <t xml:space="preserve">sayid</t>
         </is>
       </c>
       <c r="D10" s="65">
-        <v>8281546625</v>
+        <v>8590825100</v>
       </c>
       <c t="inlineStr" r="E10">
         <is>
-          <t xml:space="preserve">31-12-2025</t>
+          <t xml:space="preserve">25-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F10">
         <is>
-          <t xml:space="preserve">Althaf A</t>
+          <t xml:space="preserve">ABIN KRISHNA S</t>
         </is>
       </c>
       <c t="inlineStr" r="G10">
@@ -698,7 +698,7 @@
       </c>
       <c t="inlineStr" r="K10">
         <is>
-          <t xml:space="preserve">they will inform tomorrow</t>
+          <t xml:space="preserve">..</t>
         </is>
       </c>
     </row>
@@ -713,20 +713,20 @@
       </c>
       <c t="inlineStr" r="C11">
         <is>
-          <t xml:space="preserve">afsal</t>
+          <t xml:space="preserve">Amith</t>
         </is>
       </c>
       <c r="D11" s="65">
-        <v>9895939667</v>
+        <v>8281546625</v>
       </c>
       <c t="inlineStr" r="E11">
         <is>
-          <t xml:space="preserve">08-01-2026</t>
+          <t xml:space="preserve">31-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F11">
         <is>
-          <t xml:space="preserve">AKSHAYDAS.M</t>
+          <t xml:space="preserve">Althaf A</t>
         </is>
       </c>
       <c t="inlineStr" r="G11">
@@ -741,7 +741,7 @@
       </c>
       <c t="inlineStr" r="I11">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J11">
@@ -751,7 +751,7 @@
       </c>
       <c t="inlineStr" r="K11">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">they will inform tomorrow</t>
         </is>
       </c>
     </row>
@@ -766,20 +766,20 @@
       </c>
       <c t="inlineStr" r="C12">
         <is>
-          <t xml:space="preserve">Ajumal</t>
+          <t xml:space="preserve">afsal</t>
         </is>
       </c>
       <c r="D12" s="65">
-        <v>8089744330</v>
+        <v>9895939667</v>
       </c>
       <c t="inlineStr" r="E12">
         <is>
-          <t xml:space="preserve">01-01-2026</t>
+          <t xml:space="preserve">08-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F12">
         <is>
-          <t xml:space="preserve">SWAROOP S K</t>
+          <t xml:space="preserve">AKSHAYDAS.M</t>
         </is>
       </c>
       <c t="inlineStr" r="G12">
@@ -789,12 +789,12 @@
       </c>
       <c t="inlineStr" r="H12">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I12">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J12">
@@ -804,7 +804,7 @@
       </c>
       <c t="inlineStr" r="K12">
         <is>
-          <t xml:space="preserve">.</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
     </row>
@@ -814,25 +814,25 @@
       </c>
       <c t="inlineStr" r="B13">
         <is>
-          <t xml:space="preserve">12-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C13">
         <is>
-          <t xml:space="preserve">sharath</t>
+          <t xml:space="preserve">Ajumal</t>
         </is>
       </c>
       <c r="D13" s="65">
-        <v>8075922593</v>
+        <v>8089744330</v>
       </c>
       <c t="inlineStr" r="E13">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">01-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F13">
         <is>
-          <t xml:space="preserve">AKSHAYDAS.M</t>
+          <t xml:space="preserve">SWAROOP S K</t>
         </is>
       </c>
       <c t="inlineStr" r="G13">
@@ -842,12 +842,12 @@
       </c>
       <c t="inlineStr" r="H13">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I13">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J13">
@@ -857,7 +857,7 @@
       </c>
       <c t="inlineStr" r="K13">
         <is>
-          <t xml:space="preserve">..</t>
+          <t xml:space="preserve">.</t>
         </is>
       </c>
     </row>
@@ -872,20 +872,20 @@
       </c>
       <c t="inlineStr" r="C14">
         <is>
-          <t xml:space="preserve">joseph</t>
+          <t xml:space="preserve">sharath</t>
         </is>
       </c>
       <c r="D14" s="65">
-        <v>6282396016</v>
+        <v>8075922593</v>
       </c>
       <c t="inlineStr" r="E14">
         <is>
-          <t xml:space="preserve">05-01-2026</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F14">
         <is>
-          <t xml:space="preserve">ABIN KRISHNA S</t>
+          <t xml:space="preserve">AKSHAYDAS.M</t>
         </is>
       </c>
       <c t="inlineStr" r="G14">
@@ -895,12 +895,12 @@
       </c>
       <c t="inlineStr" r="H14">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I14">
         <is>
-          <t xml:space="preserve">SIZE TOO SMALL</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J14">
@@ -910,7 +910,7 @@
       </c>
       <c t="inlineStr" r="K14">
         <is>
-          <t xml:space="preserve">48size</t>
+          <t xml:space="preserve">..</t>
         </is>
       </c>
     </row>
@@ -920,25 +920,25 @@
       </c>
       <c t="inlineStr" r="B15">
         <is>
-          <t xml:space="preserve">13-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C15">
         <is>
-          <t xml:space="preserve">adhnana</t>
+          <t xml:space="preserve">joseph</t>
         </is>
       </c>
       <c r="D15" s="65">
-        <v>8304923273</v>
+        <v>6282396016</v>
       </c>
       <c t="inlineStr" r="E15">
         <is>
-          <t xml:space="preserve">13-12-2025</t>
+          <t xml:space="preserve">05-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F15">
         <is>
-          <t xml:space="preserve">Vishnu prasad. P</t>
+          <t xml:space="preserve">ABIN KRISHNA S</t>
         </is>
       </c>
       <c t="inlineStr" r="G15">
@@ -948,12 +948,12 @@
       </c>
       <c t="inlineStr" r="H15">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I15">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
         </is>
       </c>
       <c t="inlineStr" r="J15">
@@ -963,7 +963,7 @@
       </c>
       <c t="inlineStr" r="K15">
         <is>
-          <t xml:space="preserve">size issue</t>
+          <t xml:space="preserve">48size</t>
         </is>
       </c>
     </row>
@@ -978,20 +978,20 @@
       </c>
       <c t="inlineStr" r="C16">
         <is>
-          <t xml:space="preserve">vivek</t>
+          <t xml:space="preserve">adhnana</t>
         </is>
       </c>
       <c r="D16" s="65">
-        <v>8891349992</v>
+        <v>8304923273</v>
       </c>
       <c t="inlineStr" r="E16">
         <is>
-          <t xml:space="preserve">10-01-2026</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F16">
         <is>
-          <t xml:space="preserve">ABIN KRISHNA S</t>
+          <t xml:space="preserve">Vishnu prasad. P</t>
         </is>
       </c>
       <c t="inlineStr" r="G16">
@@ -1006,7 +1006,7 @@
       </c>
       <c t="inlineStr" r="I16">
         <is>
-          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J16">
@@ -1016,7 +1016,7 @@
       </c>
       <c t="inlineStr" r="K16">
         <is>
-          <t xml:space="preserve">..</t>
+          <t xml:space="preserve">size issue</t>
         </is>
       </c>
     </row>
@@ -1031,15 +1031,15 @@
       </c>
       <c t="inlineStr" r="C17">
         <is>
-          <t xml:space="preserve">jiby</t>
+          <t xml:space="preserve">vivek</t>
         </is>
       </c>
       <c r="D17" s="65">
-        <v>9946814700</v>
+        <v>8891349992</v>
       </c>
       <c t="inlineStr" r="E17">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">10-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F17">
@@ -1054,12 +1054,12 @@
       </c>
       <c t="inlineStr" r="H17">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I17">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
         </is>
       </c>
       <c t="inlineStr" r="J17">
@@ -1084,15 +1084,15 @@
       </c>
       <c t="inlineStr" r="C18">
         <is>
-          <t xml:space="preserve">anwar</t>
+          <t xml:space="preserve">jiby</t>
         </is>
       </c>
       <c r="D18" s="65">
-        <v>6282111567</v>
+        <v>9946814700</v>
       </c>
       <c t="inlineStr" r="E18">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F18">
@@ -1107,12 +1107,12 @@
       </c>
       <c t="inlineStr" r="H18">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I18">
         <is>
-          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J18">
@@ -1137,20 +1137,20 @@
       </c>
       <c t="inlineStr" r="C19">
         <is>
-          <t xml:space="preserve">cristy</t>
+          <t xml:space="preserve">anwar</t>
         </is>
       </c>
       <c r="D19" s="65">
-        <v>7907562960</v>
+        <v>6282111567</v>
       </c>
       <c t="inlineStr" r="E19">
         <is>
-          <t xml:space="preserve">19-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F19">
         <is>
-          <t xml:space="preserve">AKSHAYDAS.M</t>
+          <t xml:space="preserve">ABIN KRISHNA S</t>
         </is>
       </c>
       <c t="inlineStr" r="G19">
@@ -1160,12 +1160,12 @@
       </c>
       <c t="inlineStr" r="H19">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I19">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
         </is>
       </c>
       <c t="inlineStr" r="J19">
@@ -1185,25 +1185,25 @@
       </c>
       <c t="inlineStr" r="B20">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C20">
         <is>
-          <t xml:space="preserve">Arun</t>
+          <t xml:space="preserve">cristy</t>
         </is>
       </c>
       <c r="D20" s="65">
-        <v>9937725569</v>
+        <v>7907562960</v>
       </c>
       <c t="inlineStr" r="E20">
         <is>
-          <t xml:space="preserve">31-12-2025</t>
+          <t xml:space="preserve">19-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F20">
         <is>
-          <t xml:space="preserve">Althaf A</t>
+          <t xml:space="preserve">AKSHAYDAS.M</t>
         </is>
       </c>
       <c t="inlineStr" r="G20">
@@ -1213,12 +1213,12 @@
       </c>
       <c t="inlineStr" r="H20">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I20">
         <is>
-          <t xml:space="preserve">SIZE TOO SMALL</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J20">
@@ -1228,7 +1228,7 @@
       </c>
       <c t="inlineStr" r="K20">
         <is>
-          <t xml:space="preserve">he didn’t suit the pant size</t>
+          <t xml:space="preserve">..</t>
         </is>
       </c>
     </row>
@@ -1243,15 +1243,15 @@
       </c>
       <c t="inlineStr" r="C21">
         <is>
-          <t xml:space="preserve">Jithin</t>
+          <t xml:space="preserve">Arun</t>
         </is>
       </c>
       <c r="D21" s="65">
-        <v>9562958782</v>
+        <v>9937725569</v>
       </c>
       <c t="inlineStr" r="E21">
         <is>
-          <t xml:space="preserve">27-12-2025</t>
+          <t xml:space="preserve">31-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F21">
@@ -1266,12 +1266,12 @@
       </c>
       <c t="inlineStr" r="H21">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I21">
         <is>
-          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
         </is>
       </c>
       <c t="inlineStr" r="J21">
@@ -1281,7 +1281,7 @@
       </c>
       <c t="inlineStr" r="K21">
         <is>
-          <t xml:space="preserve">bulk order</t>
+          <t xml:space="preserve">he didn’t suit the pant size</t>
         </is>
       </c>
     </row>
@@ -1296,20 +1296,20 @@
       </c>
       <c t="inlineStr" r="C22">
         <is>
-          <t xml:space="preserve">Nithin</t>
+          <t xml:space="preserve">Jithin</t>
         </is>
       </c>
       <c r="D22" s="65">
-        <v>9188031437</v>
+        <v>9562958782</v>
       </c>
       <c t="inlineStr" r="E22">
         <is>
-          <t xml:space="preserve">26-01-2026</t>
+          <t xml:space="preserve">27-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F22">
         <is>
-          <t xml:space="preserve">RAMITH K</t>
+          <t xml:space="preserve">Althaf A</t>
         </is>
       </c>
       <c t="inlineStr" r="G22">
@@ -1319,12 +1319,12 @@
       </c>
       <c t="inlineStr" r="H22">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I22">
         <is>
-          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J22">
@@ -1334,7 +1334,7 @@
       </c>
       <c t="inlineStr" r="K22">
         <is>
-          <t xml:space="preserve">Loss</t>
+          <t xml:space="preserve">bulk order</t>
         </is>
       </c>
     </row>
@@ -1349,20 +1349,20 @@
       </c>
       <c t="inlineStr" r="C23">
         <is>
-          <t xml:space="preserve">melvin</t>
+          <t xml:space="preserve">Nithin</t>
         </is>
       </c>
       <c r="D23" s="65">
-        <v>9895578570</v>
+        <v>9188031437</v>
       </c>
       <c t="inlineStr" r="E23">
         <is>
-          <t xml:space="preserve">29-12-2025</t>
+          <t xml:space="preserve">26-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F23">
         <is>
-          <t xml:space="preserve">ABIN KRISHNA S</t>
+          <t xml:space="preserve">RAMITH K</t>
         </is>
       </c>
       <c t="inlineStr" r="G23">
@@ -1387,7 +1387,7 @@
       </c>
       <c t="inlineStr" r="K23">
         <is>
-          <t xml:space="preserve">..</t>
+          <t xml:space="preserve">Loss</t>
         </is>
       </c>
     </row>
@@ -1397,25 +1397,25 @@
       </c>
       <c t="inlineStr" r="B24">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C24">
         <is>
-          <t xml:space="preserve">Tojin</t>
+          <t xml:space="preserve">melvin</t>
         </is>
       </c>
       <c r="D24" s="65">
-        <v>8943034163</v>
+        <v>9895578570</v>
       </c>
       <c t="inlineStr" r="E24">
         <is>
-          <t xml:space="preserve">10-01-2026</t>
+          <t xml:space="preserve">29-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F24">
         <is>
-          <t xml:space="preserve">Althaf A</t>
+          <t xml:space="preserve">ABIN KRISHNA S</t>
         </is>
       </c>
       <c t="inlineStr" r="G24">
@@ -1425,17 +1425,22 @@
       </c>
       <c t="inlineStr" r="H24">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I24">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
         </is>
       </c>
       <c t="inlineStr" r="J24">
         <is>
           <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K24">
+        <is>
+          <t xml:space="preserve">..</t>
         </is>
       </c>
     </row>
@@ -1450,20 +1455,20 @@
       </c>
       <c t="inlineStr" r="C25">
         <is>
-          <t xml:space="preserve">anush</t>
+          <t xml:space="preserve">Tojin</t>
         </is>
       </c>
       <c r="D25" s="65">
-        <v>8086462505</v>
+        <v>8943034163</v>
       </c>
       <c t="inlineStr" r="E25">
         <is>
-          <t xml:space="preserve">18-01-2026</t>
+          <t xml:space="preserve">10-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F25">
         <is>
-          <t xml:space="preserve">AKSHAYDAS.M</t>
+          <t xml:space="preserve">Althaf A</t>
         </is>
       </c>
       <c t="inlineStr" r="G25">
@@ -1473,22 +1478,17 @@
       </c>
       <c t="inlineStr" r="H25">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I25">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J25">
         <is>
           <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K25">
-        <is>
-          <t xml:space="preserve">kurutha</t>
         </is>
       </c>
     </row>
@@ -1498,25 +1498,25 @@
       </c>
       <c t="inlineStr" r="B26">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">15-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C26">
         <is>
-          <t xml:space="preserve">Abraham</t>
+          <t xml:space="preserve">anush</t>
         </is>
       </c>
       <c r="D26" s="65">
-        <v>9747793966</v>
+        <v>8086462505</v>
       </c>
       <c t="inlineStr" r="E26">
         <is>
-          <t xml:space="preserve">10-01-2026</t>
+          <t xml:space="preserve">18-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F26">
         <is>
-          <t xml:space="preserve">Althaf A</t>
+          <t xml:space="preserve">AKSHAYDAS.M</t>
         </is>
       </c>
       <c t="inlineStr" r="G26">
@@ -1526,12 +1526,12 @@
       </c>
       <c t="inlineStr" r="H26">
         <is>
-          <t xml:space="preserve">PRICING</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I26">
         <is>
-          <t xml:space="preserve">RENT TO HIGH</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J26">
@@ -1541,7 +1541,7 @@
       </c>
       <c t="inlineStr" r="K26">
         <is>
-          <t xml:space="preserve">.</t>
+          <t xml:space="preserve">kurutha</t>
         </is>
       </c>
     </row>
@@ -1556,15 +1556,15 @@
       </c>
       <c t="inlineStr" r="C27">
         <is>
-          <t xml:space="preserve">Ashik</t>
+          <t xml:space="preserve">Abraham</t>
         </is>
       </c>
       <c r="D27" s="65">
-        <v>9037260665</v>
+        <v>9747793966</v>
       </c>
       <c t="inlineStr" r="E27">
         <is>
-          <t xml:space="preserve">22-12-2025</t>
+          <t xml:space="preserve">10-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F27">
@@ -1579,12 +1579,12 @@
       </c>
       <c t="inlineStr" r="H27">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">PRICING</t>
         </is>
       </c>
       <c t="inlineStr" r="I27">
         <is>
-          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+          <t xml:space="preserve">RENT TO HIGH</t>
         </is>
       </c>
       <c t="inlineStr" r="J27">
@@ -1609,20 +1609,20 @@
       </c>
       <c t="inlineStr" r="C28">
         <is>
-          <t xml:space="preserve">sandeep</t>
+          <t xml:space="preserve">Ashik</t>
         </is>
       </c>
       <c r="D28" s="65">
-        <v>9947153224</v>
+        <v>9037260665</v>
       </c>
       <c t="inlineStr" r="E28">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F28">
         <is>
-          <t xml:space="preserve">Nithin binoy</t>
+          <t xml:space="preserve">Althaf A</t>
         </is>
       </c>
       <c t="inlineStr" r="G28">
@@ -1632,12 +1632,12 @@
       </c>
       <c t="inlineStr" r="H28">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I28">
         <is>
-          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J28">
@@ -1647,7 +1647,7 @@
       </c>
       <c t="inlineStr" r="K28">
         <is>
-          <t xml:space="preserve">loos</t>
+          <t xml:space="preserve">.</t>
         </is>
       </c>
     </row>
@@ -1657,25 +1657,25 @@
       </c>
       <c t="inlineStr" r="B29">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">16-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C29">
         <is>
-          <t xml:space="preserve">Jebin</t>
+          <t xml:space="preserve">sandeep</t>
         </is>
       </c>
       <c r="D29" s="65">
-        <v>8124004551</v>
+        <v>9947153224</v>
       </c>
       <c t="inlineStr" r="E29">
         <is>
-          <t xml:space="preserve">14-01-2026</t>
+          <t xml:space="preserve">16-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F29">
         <is>
-          <t xml:space="preserve">Althaf A</t>
+          <t xml:space="preserve">Nithin binoy</t>
         </is>
       </c>
       <c t="inlineStr" r="G29">
@@ -1685,12 +1685,12 @@
       </c>
       <c t="inlineStr" r="H29">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I29">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
         </is>
       </c>
       <c t="inlineStr" r="J29">
@@ -1700,7 +1700,7 @@
       </c>
       <c t="inlineStr" r="K29">
         <is>
-          <t xml:space="preserve">they will come sunday</t>
+          <t xml:space="preserve">loos</t>
         </is>
       </c>
     </row>
@@ -1715,20 +1715,20 @@
       </c>
       <c t="inlineStr" r="C30">
         <is>
-          <t xml:space="preserve">benadict</t>
+          <t xml:space="preserve">Jebin</t>
         </is>
       </c>
       <c r="D30" s="65">
-        <v>9562474208</v>
+        <v>8124004551</v>
       </c>
       <c t="inlineStr" r="E30">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">14-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F30">
         <is>
-          <t xml:space="preserve">Nithin binoy</t>
+          <t xml:space="preserve">Althaf A</t>
         </is>
       </c>
       <c t="inlineStr" r="G30">
@@ -1738,12 +1738,12 @@
       </c>
       <c t="inlineStr" r="H30">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I30">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J30">
@@ -1753,7 +1753,7 @@
       </c>
       <c t="inlineStr" r="K30">
         <is>
-          <t xml:space="preserve">loss</t>
+          <t xml:space="preserve">they will come sunday</t>
         </is>
       </c>
     </row>
@@ -1768,20 +1768,20 @@
       </c>
       <c t="inlineStr" r="C31">
         <is>
-          <t xml:space="preserve">toy</t>
+          <t xml:space="preserve">benadict</t>
         </is>
       </c>
       <c r="D31" s="65">
-        <v>9846105212</v>
+        <v>9562474208</v>
       </c>
       <c t="inlineStr" r="E31">
         <is>
-          <t xml:space="preserve">28-12-2025</t>
+          <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F31">
         <is>
-          <t xml:space="preserve">SWAROOP S K</t>
+          <t xml:space="preserve">Nithin binoy</t>
         </is>
       </c>
       <c t="inlineStr" r="G31">
@@ -1791,12 +1791,12 @@
       </c>
       <c t="inlineStr" r="H31">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I31">
         <is>
-          <t xml:space="preserve">SIZE TOO SMALL</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J31">
@@ -1806,7 +1806,7 @@
       </c>
       <c t="inlineStr" r="K31">
         <is>
-          <t xml:space="preserve">.</t>
+          <t xml:space="preserve">loss</t>
         </is>
       </c>
     </row>
@@ -1821,20 +1821,20 @@
       </c>
       <c t="inlineStr" r="C32">
         <is>
-          <t xml:space="preserve">suhail</t>
+          <t xml:space="preserve">toy</t>
         </is>
       </c>
       <c r="D32" s="65">
-        <v>8137912784</v>
+        <v>9846105212</v>
       </c>
       <c t="inlineStr" r="E32">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">28-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F32">
         <is>
-          <t xml:space="preserve">Mohamed Farseen C S</t>
+          <t xml:space="preserve">SWAROOP S K</t>
         </is>
       </c>
       <c t="inlineStr" r="G32">
@@ -1844,12 +1844,12 @@
       </c>
       <c t="inlineStr" r="H32">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I32">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
         </is>
       </c>
       <c t="inlineStr" r="J32">
@@ -1859,7 +1859,7 @@
       </c>
       <c t="inlineStr" r="K32">
         <is>
-          <t xml:space="preserve">enquiry</t>
+          <t xml:space="preserve">.</t>
         </is>
       </c>
     </row>
@@ -1874,11 +1874,11 @@
       </c>
       <c t="inlineStr" r="C33">
         <is>
-          <t xml:space="preserve">althaf</t>
+          <t xml:space="preserve">suhail</t>
         </is>
       </c>
       <c r="D33" s="65">
-        <v>7306166226</v>
+        <v>8137912784</v>
       </c>
       <c t="inlineStr" r="E33">
         <is>
@@ -1887,7 +1887,7 @@
       </c>
       <c t="inlineStr" r="F33">
         <is>
-          <t xml:space="preserve">Nithin binoy</t>
+          <t xml:space="preserve">Mohamed Farseen C S</t>
         </is>
       </c>
       <c t="inlineStr" r="G33">
@@ -1897,12 +1897,12 @@
       </c>
       <c t="inlineStr" r="H33">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I33">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J33">
@@ -1912,7 +1912,7 @@
       </c>
       <c t="inlineStr" r="K33">
         <is>
-          <t xml:space="preserve">loss</t>
+          <t xml:space="preserve">enquiry</t>
         </is>
       </c>
     </row>
@@ -1927,20 +1927,20 @@
       </c>
       <c t="inlineStr" r="C34">
         <is>
-          <t xml:space="preserve">naveen</t>
+          <t xml:space="preserve">althaf</t>
         </is>
       </c>
       <c r="D34" s="65">
-        <v>8281044850</v>
+        <v>7306166226</v>
       </c>
       <c t="inlineStr" r="E34">
         <is>
-          <t xml:space="preserve">08-01-2026</t>
+          <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F34">
         <is>
-          <t xml:space="preserve">ABIN KRISHNA S</t>
+          <t xml:space="preserve">Nithin binoy</t>
         </is>
       </c>
       <c t="inlineStr" r="G34">
@@ -1965,7 +1965,7 @@
       </c>
       <c t="inlineStr" r="K34">
         <is>
-          <t xml:space="preserve">..</t>
+          <t xml:space="preserve">loss</t>
         </is>
       </c>
     </row>
@@ -1975,25 +1975,25 @@
       </c>
       <c t="inlineStr" r="B35">
         <is>
-          <t xml:space="preserve">18-12-2025</t>
+          <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C35">
         <is>
-          <t xml:space="preserve">Umar</t>
+          <t xml:space="preserve">naveen</t>
         </is>
       </c>
       <c r="D35" s="65">
-        <v>9447767211</v>
+        <v>8281044850</v>
       </c>
       <c t="inlineStr" r="E35">
         <is>
-          <t xml:space="preserve">31-12-2025</t>
+          <t xml:space="preserve">08-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F35">
         <is>
-          <t xml:space="preserve">Althaf A</t>
+          <t xml:space="preserve">ABIN KRISHNA S</t>
         </is>
       </c>
       <c t="inlineStr" r="G35">
@@ -2003,12 +2003,12 @@
       </c>
       <c t="inlineStr" r="H35">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I35">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J35">
@@ -2018,7 +2018,7 @@
       </c>
       <c t="inlineStr" r="K35">
         <is>
-          <t xml:space="preserve">family dissaproval they bought new one instead of rental</t>
+          <t xml:space="preserve">..</t>
         </is>
       </c>
     </row>
@@ -2033,20 +2033,20 @@
       </c>
       <c t="inlineStr" r="C36">
         <is>
-          <t xml:space="preserve">vishnu</t>
+          <t xml:space="preserve">Umar</t>
         </is>
       </c>
       <c r="D36" s="65">
-        <v>8281533975</v>
+        <v>9447767211</v>
       </c>
       <c t="inlineStr" r="E36">
         <is>
-          <t xml:space="preserve">18-12-2025</t>
+          <t xml:space="preserve">31-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F36">
         <is>
-          <t xml:space="preserve">Mohamed Farseen C S</t>
+          <t xml:space="preserve">Althaf A</t>
         </is>
       </c>
       <c t="inlineStr" r="G36">
@@ -2071,7 +2071,7 @@
       </c>
       <c t="inlineStr" r="K36">
         <is>
-          <t xml:space="preserve">family disapproved entire model in our store</t>
+          <t xml:space="preserve">family dissaproval they bought new one instead of rental</t>
         </is>
       </c>
     </row>
@@ -2086,11 +2086,11 @@
       </c>
       <c t="inlineStr" r="C37">
         <is>
-          <t xml:space="preserve">abin</t>
+          <t xml:space="preserve">vishnu</t>
         </is>
       </c>
       <c r="D37" s="65">
-        <v>9895568883</v>
+        <v>8281533975</v>
       </c>
       <c t="inlineStr" r="E37">
         <is>
@@ -2099,7 +2099,7 @@
       </c>
       <c t="inlineStr" r="F37">
         <is>
-          <t xml:space="preserve">Nithin binoy</t>
+          <t xml:space="preserve">Mohamed Farseen C S</t>
         </is>
       </c>
       <c t="inlineStr" r="G37">
@@ -2109,12 +2109,12 @@
       </c>
       <c t="inlineStr" r="H37">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I37">
         <is>
-          <t xml:space="preserve">SHOE</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J37">
@@ -2124,7 +2124,7 @@
       </c>
       <c t="inlineStr" r="K37">
         <is>
-          <t xml:space="preserve">size not available 10 or 9 black glossy</t>
+          <t xml:space="preserve">family disapproved entire model in our store</t>
         </is>
       </c>
     </row>
@@ -2139,20 +2139,20 @@
       </c>
       <c t="inlineStr" r="C38">
         <is>
-          <t xml:space="preserve">Gokul</t>
+          <t xml:space="preserve">abin</t>
         </is>
       </c>
       <c r="D38" s="65">
-        <v>8129932346</v>
+        <v>9895568883</v>
       </c>
       <c t="inlineStr" r="E38">
         <is>
-          <t xml:space="preserve">11-01-2026</t>
+          <t xml:space="preserve">18-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F38">
         <is>
-          <t xml:space="preserve">Althaf A</t>
+          <t xml:space="preserve">Nithin binoy</t>
         </is>
       </c>
       <c t="inlineStr" r="G38">
@@ -2167,7 +2167,7 @@
       </c>
       <c t="inlineStr" r="I38">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">SHOE</t>
         </is>
       </c>
       <c t="inlineStr" r="J38">
@@ -2177,7 +2177,7 @@
       </c>
       <c t="inlineStr" r="K38">
         <is>
-          <t xml:space="preserve">internal issues</t>
+          <t xml:space="preserve">size not available 10 or 9 black glossy</t>
         </is>
       </c>
     </row>
@@ -2192,15 +2192,15 @@
       </c>
       <c t="inlineStr" r="C39">
         <is>
-          <t xml:space="preserve">Amal</t>
+          <t xml:space="preserve">Gokul</t>
         </is>
       </c>
       <c r="D39" s="65">
-        <v>8921643216</v>
+        <v>8129932346</v>
       </c>
       <c t="inlineStr" r="E39">
         <is>
-          <t xml:space="preserve">18-12-2025</t>
+          <t xml:space="preserve">11-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F39">
@@ -2215,12 +2215,12 @@
       </c>
       <c t="inlineStr" r="H39">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I39">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J39">
@@ -2230,7 +2230,7 @@
       </c>
       <c t="inlineStr" r="K39">
         <is>
-          <t xml:space="preserve">texture black NP 38 not available another booking</t>
+          <t xml:space="preserve">internal issues</t>
         </is>
       </c>
     </row>
@@ -2245,20 +2245,20 @@
       </c>
       <c t="inlineStr" r="C40">
         <is>
-          <t xml:space="preserve">isimal</t>
+          <t xml:space="preserve">Amal</t>
         </is>
       </c>
       <c r="D40" s="65">
-        <v>9895447752</v>
+        <v>8921643216</v>
       </c>
       <c t="inlineStr" r="E40">
         <is>
-          <t xml:space="preserve">29-12-2025</t>
+          <t xml:space="preserve">18-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F40">
         <is>
-          <t xml:space="preserve">SWAROOP S K</t>
+          <t xml:space="preserve">Althaf A</t>
         </is>
       </c>
       <c t="inlineStr" r="G40">
@@ -2273,7 +2273,7 @@
       </c>
       <c t="inlineStr" r="I40">
         <is>
-          <t xml:space="preserve">Product Already Booked</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J40">
@@ -2283,7 +2283,7 @@
       </c>
       <c t="inlineStr" r="K40">
         <is>
-          <t xml:space="preserve">prem black suit size required 36 set.</t>
+          <t xml:space="preserve">texture black NP 38 not available another booking</t>
         </is>
       </c>
     </row>
@@ -2298,20 +2298,20 @@
       </c>
       <c t="inlineStr" r="C41">
         <is>
-          <t xml:space="preserve">vishnu</t>
+          <t xml:space="preserve">isimal</t>
         </is>
       </c>
       <c r="D41" s="65">
-        <v>9995931223</v>
+        <v>9895447752</v>
       </c>
       <c t="inlineStr" r="E41">
         <is>
-          <t xml:space="preserve">18-12-2025</t>
+          <t xml:space="preserve">29-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F41">
         <is>
-          <t xml:space="preserve">Mohamed Farseen C S</t>
+          <t xml:space="preserve">SWAROOP S K</t>
         </is>
       </c>
       <c t="inlineStr" r="G41">
@@ -2326,7 +2326,7 @@
       </c>
       <c t="inlineStr" r="I41">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">Product Already Booked</t>
         </is>
       </c>
       <c t="inlineStr" r="J41">
@@ -2336,7 +2336,7 @@
       </c>
       <c t="inlineStr" r="K41">
         <is>
-          <t xml:space="preserve">product not available in our store  already booked requirement for premium black shall</t>
+          <t xml:space="preserve">prem black suit size required 36 set.</t>
         </is>
       </c>
     </row>
@@ -2351,11 +2351,11 @@
       </c>
       <c t="inlineStr" r="C42">
         <is>
-          <t xml:space="preserve">mini</t>
+          <t xml:space="preserve">vishnu</t>
         </is>
       </c>
       <c r="D42" s="65">
-        <v>9497680722</v>
+        <v>9995931223</v>
       </c>
       <c t="inlineStr" r="E42">
         <is>
@@ -2389,7 +2389,7 @@
       </c>
       <c t="inlineStr" r="K42">
         <is>
-          <t xml:space="preserve">black texture non premium</t>
+          <t xml:space="preserve">product not available in our store  already booked requirement for premium black shall</t>
         </is>
       </c>
     </row>
@@ -2404,11 +2404,11 @@
       </c>
       <c t="inlineStr" r="C43">
         <is>
-          <t xml:space="preserve">Don jose</t>
+          <t xml:space="preserve">mini</t>
         </is>
       </c>
       <c r="D43" s="65">
-        <v>9895574884</v>
+        <v>9497680722</v>
       </c>
       <c t="inlineStr" r="E43">
         <is>
@@ -2432,7 +2432,7 @@
       </c>
       <c t="inlineStr" r="I43">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J43">
@@ -2442,7 +2442,7 @@
       </c>
       <c t="inlineStr" r="K43">
         <is>
-          <t xml:space="preserve">customer required formal kids suite</t>
+          <t xml:space="preserve">black texture non premium</t>
         </is>
       </c>
     </row>
@@ -2452,25 +2452,25 @@
       </c>
       <c t="inlineStr" r="B44">
         <is>
-          <t xml:space="preserve">19-12-2025</t>
+          <t xml:space="preserve">18-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C44">
         <is>
-          <t xml:space="preserve">suthish</t>
+          <t xml:space="preserve">Don jose</t>
         </is>
       </c>
       <c r="D44" s="65">
-        <v>8606277718</v>
+        <v>9895574884</v>
       </c>
       <c t="inlineStr" r="E44">
         <is>
-          <t xml:space="preserve">10-01-2026</t>
+          <t xml:space="preserve">18-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F44">
         <is>
-          <t xml:space="preserve">SWAROOP S K</t>
+          <t xml:space="preserve">Mohamed Farseen C S</t>
         </is>
       </c>
       <c t="inlineStr" r="G44">
@@ -2485,7 +2485,7 @@
       </c>
       <c t="inlineStr" r="I44">
         <is>
-          <t xml:space="preserve">Product Already Booked</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J44">
@@ -2495,7 +2495,7 @@
       </c>
       <c t="inlineStr" r="K44">
         <is>
-          <t xml:space="preserve">blue shiny 42 size blazer</t>
+          <t xml:space="preserve">customer required formal kids suite</t>
         </is>
       </c>
     </row>
@@ -2510,20 +2510,20 @@
       </c>
       <c t="inlineStr" r="C45">
         <is>
-          <t xml:space="preserve">khaleel</t>
+          <t xml:space="preserve">suthish</t>
         </is>
       </c>
       <c r="D45" s="65">
-        <v>8089977280</v>
+        <v>8606277718</v>
       </c>
       <c t="inlineStr" r="E45">
         <is>
-          <t xml:space="preserve">19-12-2025</t>
+          <t xml:space="preserve">10-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F45">
         <is>
-          <t xml:space="preserve">Mohamed Farseen C S</t>
+          <t xml:space="preserve">SWAROOP S K</t>
         </is>
       </c>
       <c t="inlineStr" r="G45">
@@ -2533,12 +2533,12 @@
       </c>
       <c t="inlineStr" r="H45">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I45">
         <is>
-          <t xml:space="preserve">BUDGET RESTRICTIONS</t>
+          <t xml:space="preserve">Product Already Booked</t>
         </is>
       </c>
       <c t="inlineStr" r="J45">
@@ -2548,7 +2548,7 @@
       </c>
       <c t="inlineStr" r="K45">
         <is>
-          <t xml:space="preserve">bride restrictions</t>
+          <t xml:space="preserve">blue shiny 42 size blazer</t>
         </is>
       </c>
     </row>
@@ -2563,20 +2563,20 @@
       </c>
       <c t="inlineStr" r="C46">
         <is>
-          <t xml:space="preserve">Rizwan</t>
+          <t xml:space="preserve">khaleel</t>
         </is>
       </c>
       <c r="D46" s="65">
-        <v>8086945836</v>
+        <v>8089977280</v>
       </c>
       <c t="inlineStr" r="E46">
         <is>
-          <t xml:space="preserve">25-01-2026</t>
+          <t xml:space="preserve">19-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F46">
         <is>
-          <t xml:space="preserve">Althaf A</t>
+          <t xml:space="preserve">Mohamed Farseen C S</t>
         </is>
       </c>
       <c t="inlineStr" r="G46">
@@ -2586,12 +2586,12 @@
       </c>
       <c t="inlineStr" r="H46">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I46">
         <is>
-          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+          <t xml:space="preserve">BUDGET RESTRICTIONS</t>
         </is>
       </c>
       <c t="inlineStr" r="J46">
@@ -2601,7 +2601,7 @@
       </c>
       <c t="inlineStr" r="K46">
         <is>
-          <t xml:space="preserve">black with minimal print</t>
+          <t xml:space="preserve">bride restrictions</t>
         </is>
       </c>
     </row>
@@ -2616,15 +2616,15 @@
       </c>
       <c t="inlineStr" r="C47">
         <is>
-          <t xml:space="preserve">Akshay</t>
+          <t xml:space="preserve">Rizwan</t>
         </is>
       </c>
       <c r="D47" s="65">
-        <v>9400891463</v>
+        <v>8086945836</v>
       </c>
       <c t="inlineStr" r="E47">
         <is>
-          <t xml:space="preserve">09-02-2026</t>
+          <t xml:space="preserve">25-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F47">
@@ -2639,12 +2639,12 @@
       </c>
       <c t="inlineStr" r="H47">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I47">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J47">
@@ -2654,7 +2654,7 @@
       </c>
       <c t="inlineStr" r="K47">
         <is>
-          <t xml:space="preserve">family disapproval</t>
+          <t xml:space="preserve">black with minimal print</t>
         </is>
       </c>
     </row>
@@ -2664,25 +2664,25 @@
       </c>
       <c t="inlineStr" r="B48">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">19-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C48">
         <is>
-          <t xml:space="preserve">musfar</t>
+          <t xml:space="preserve">Akshay</t>
         </is>
       </c>
       <c r="D48" s="65">
-        <v>9061752911</v>
+        <v>9400891463</v>
       </c>
       <c t="inlineStr" r="E48">
         <is>
-          <t xml:space="preserve">10-01-2026</t>
+          <t xml:space="preserve">09-02-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F48">
         <is>
-          <t xml:space="preserve">SWAROOP S K</t>
+          <t xml:space="preserve">Althaf A</t>
         </is>
       </c>
       <c t="inlineStr" r="G48">
@@ -2707,7 +2707,7 @@
       </c>
       <c t="inlineStr" r="K48">
         <is>
-          <t xml:space="preserve">.</t>
+          <t xml:space="preserve">family disapproval</t>
         </is>
       </c>
     </row>
@@ -2722,20 +2722,20 @@
       </c>
       <c t="inlineStr" r="C49">
         <is>
-          <t xml:space="preserve">Zayan</t>
+          <t xml:space="preserve">musfar</t>
         </is>
       </c>
       <c r="D49" s="65">
-        <v>9846858838</v>
+        <v>9061752911</v>
       </c>
       <c t="inlineStr" r="E49">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">10-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F49">
         <is>
-          <t xml:space="preserve">Binu Augustine</t>
+          <t xml:space="preserve">SWAROOP S K</t>
         </is>
       </c>
       <c t="inlineStr" r="G49">
@@ -2745,12 +2745,12 @@
       </c>
       <c t="inlineStr" r="H49">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I49">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J49">
@@ -2760,7 +2760,7 @@
       </c>
       <c t="inlineStr" r="K49">
         <is>
-          <t xml:space="preserve">function is tommorow</t>
+          <t xml:space="preserve">.</t>
         </is>
       </c>
     </row>
@@ -2775,20 +2775,20 @@
       </c>
       <c t="inlineStr" r="C50">
         <is>
-          <t xml:space="preserve">safeer</t>
+          <t xml:space="preserve">Zayan</t>
         </is>
       </c>
       <c r="D50" s="65">
-        <v>8606123654</v>
+        <v>9846858838</v>
       </c>
       <c t="inlineStr" r="E50">
         <is>
-          <t xml:space="preserve">23-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F50">
         <is>
-          <t xml:space="preserve">SWAROOP S K</t>
+          <t xml:space="preserve">Binu Augustine</t>
         </is>
       </c>
       <c t="inlineStr" r="G50">
@@ -2798,12 +2798,12 @@
       </c>
       <c t="inlineStr" r="H50">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I50">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J50">
@@ -2813,7 +2813,7 @@
       </c>
       <c t="inlineStr" r="K50">
         <is>
-          <t xml:space="preserve">.</t>
+          <t xml:space="preserve">function is tommorow</t>
         </is>
       </c>
     </row>
@@ -2828,20 +2828,20 @@
       </c>
       <c t="inlineStr" r="C51">
         <is>
-          <t xml:space="preserve">keba paul</t>
+          <t xml:space="preserve">safeer</t>
         </is>
       </c>
       <c r="D51" s="65">
-        <v>8590118941</v>
+        <v>8606123654</v>
       </c>
       <c t="inlineStr" r="E51">
         <is>
-          <t xml:space="preserve">26-12-2025</t>
+          <t xml:space="preserve">23-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F51">
         <is>
-          <t xml:space="preserve">ABIN KRISHNA S</t>
+          <t xml:space="preserve">SWAROOP S K</t>
         </is>
       </c>
       <c t="inlineStr" r="G51">
@@ -2851,12 +2851,12 @@
       </c>
       <c t="inlineStr" r="H51">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I51">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J51">
@@ -2866,7 +2866,7 @@
       </c>
       <c t="inlineStr" r="K51">
         <is>
-          <t xml:space="preserve">size not availabe</t>
+          <t xml:space="preserve">.</t>
         </is>
       </c>
     </row>
@@ -2881,15 +2881,15 @@
       </c>
       <c t="inlineStr" r="C52">
         <is>
-          <t xml:space="preserve">linu</t>
+          <t xml:space="preserve">keba paul</t>
         </is>
       </c>
       <c r="D52" s="65">
-        <v>7293168811</v>
+        <v>8590118941</v>
       </c>
       <c t="inlineStr" r="E52">
         <is>
-          <t xml:space="preserve">27-12-2025</t>
+          <t xml:space="preserve">26-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F52">
@@ -2909,7 +2909,7 @@
       </c>
       <c t="inlineStr" r="I52">
         <is>
-          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J52">
@@ -2919,7 +2919,7 @@
       </c>
       <c t="inlineStr" r="K52">
         <is>
-          <t xml:space="preserve">enquiry</t>
+          <t xml:space="preserve">size not availabe</t>
         </is>
       </c>
     </row>
@@ -2934,15 +2934,15 @@
       </c>
       <c t="inlineStr" r="C53">
         <is>
-          <t xml:space="preserve">indrajith</t>
+          <t xml:space="preserve">linu</t>
         </is>
       </c>
       <c r="D53" s="65">
-        <v>7012239991</v>
+        <v>7293168811</v>
       </c>
       <c t="inlineStr" r="E53">
         <is>
-          <t xml:space="preserve">06-05-2026</t>
+          <t xml:space="preserve">27-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F53">
@@ -2972,7 +2972,7 @@
       </c>
       <c t="inlineStr" r="K53">
         <is>
-          <t xml:space="preserve">for enquiry</t>
+          <t xml:space="preserve">enquiry</t>
         </is>
       </c>
     </row>
@@ -2982,25 +2982,25 @@
       </c>
       <c t="inlineStr" r="B54">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C54">
         <is>
-          <t xml:space="preserve">Anoop</t>
+          <t xml:space="preserve">indrajith</t>
         </is>
       </c>
       <c r="D54" s="65">
-        <v>7974143534</v>
+        <v>7012239991</v>
       </c>
       <c t="inlineStr" r="E54">
         <is>
-          <t xml:space="preserve">04-01-2026</t>
+          <t xml:space="preserve">06-05-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F54">
         <is>
-          <t xml:space="preserve">SWAROOP S K</t>
+          <t xml:space="preserve">ABIN KRISHNA S</t>
         </is>
       </c>
       <c t="inlineStr" r="G54">
@@ -3010,12 +3010,12 @@
       </c>
       <c t="inlineStr" r="H54">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I54">
         <is>
-          <t xml:space="preserve">Product Already Booked</t>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
         </is>
       </c>
       <c t="inlineStr" r="J54">
@@ -3025,7 +3025,7 @@
       </c>
       <c t="inlineStr" r="K54">
         <is>
-          <t xml:space="preserve">coustomer is conformed product but product is booked. Product - Cream open B/G</t>
+          <t xml:space="preserve">for enquiry</t>
         </is>
       </c>
     </row>
@@ -3040,20 +3040,20 @@
       </c>
       <c t="inlineStr" r="C55">
         <is>
-          <t xml:space="preserve">binoy</t>
+          <t xml:space="preserve">Anoop</t>
         </is>
       </c>
       <c r="D55" s="65">
-        <v>9061762422</v>
+        <v>7974143534</v>
       </c>
       <c t="inlineStr" r="E55">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">04-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F55">
         <is>
-          <t xml:space="preserve">Mohamed Farseen C S</t>
+          <t xml:space="preserve">SWAROOP S K</t>
         </is>
       </c>
       <c t="inlineStr" r="G55">
@@ -3063,12 +3063,12 @@
       </c>
       <c t="inlineStr" r="H55">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I55">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">Product Already Booked</t>
         </is>
       </c>
       <c t="inlineStr" r="J55">
@@ -3078,7 +3078,7 @@
       </c>
       <c t="inlineStr" r="K55">
         <is>
-          <t xml:space="preserve">enquiry for open bengala customer not satisfied</t>
+          <t xml:space="preserve">coustomer is conformed product but product is booked. Product - Cream open B/G</t>
         </is>
       </c>
     </row>
@@ -3093,11 +3093,11 @@
       </c>
       <c t="inlineStr" r="C56">
         <is>
-          <t xml:space="preserve">pranav</t>
+          <t xml:space="preserve">binoy</t>
         </is>
       </c>
       <c r="D56" s="65">
-        <v>7012395349</v>
+        <v>9061762422</v>
       </c>
       <c t="inlineStr" r="E56">
         <is>
@@ -3116,12 +3116,12 @@
       </c>
       <c t="inlineStr" r="H56">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I56">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J56">
@@ -3131,7 +3131,7 @@
       </c>
       <c t="inlineStr" r="K56">
         <is>
-          <t xml:space="preserve">required model not available</t>
+          <t xml:space="preserve">enquiry for open bengala customer not satisfied</t>
         </is>
       </c>
     </row>
@@ -3146,20 +3146,20 @@
       </c>
       <c t="inlineStr" r="C57">
         <is>
-          <t xml:space="preserve">vishnu</t>
+          <t xml:space="preserve">pranav</t>
         </is>
       </c>
       <c r="D57" s="65">
-        <v>8129349296</v>
+        <v>7012395349</v>
       </c>
       <c t="inlineStr" r="E57">
         <is>
-          <t xml:space="preserve">29-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F57">
         <is>
-          <t xml:space="preserve">SWAROOP S K</t>
+          <t xml:space="preserve">Mohamed Farseen C S</t>
         </is>
       </c>
       <c t="inlineStr" r="G57">
@@ -3184,7 +3184,7 @@
       </c>
       <c t="inlineStr" r="K57">
         <is>
-          <t xml:space="preserve">Family problem Will be come</t>
+          <t xml:space="preserve">required model not available</t>
         </is>
       </c>
     </row>
@@ -3199,20 +3199,20 @@
       </c>
       <c t="inlineStr" r="C58">
         <is>
-          <t xml:space="preserve">thanveer</t>
+          <t xml:space="preserve">vishnu</t>
         </is>
       </c>
       <c r="D58" s="65">
-        <v>9947874867</v>
+        <v>8129349296</v>
       </c>
       <c t="inlineStr" r="E58">
         <is>
-          <t xml:space="preserve">07-01-2026</t>
+          <t xml:space="preserve">29-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F58">
         <is>
-          <t xml:space="preserve">Binu Augustine</t>
+          <t xml:space="preserve">SWAROOP S K</t>
         </is>
       </c>
       <c t="inlineStr" r="G58">
@@ -3222,12 +3222,12 @@
       </c>
       <c t="inlineStr" r="H58">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I58">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J58">
@@ -3237,7 +3237,7 @@
       </c>
       <c t="inlineStr" r="K58">
         <is>
-          <t xml:space="preserve">.</t>
+          <t xml:space="preserve">Family problem Will be come</t>
         </is>
       </c>
     </row>
@@ -3252,45 +3252,469 @@
       </c>
       <c t="inlineStr" r="C59">
         <is>
+          <t xml:space="preserve">thanveer</t>
+        </is>
+      </c>
+      <c r="D59" s="65">
+        <v>9947874867</v>
+      </c>
+      <c t="inlineStr" r="E59">
+        <is>
+          <t xml:space="preserve">07-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F59">
+        <is>
+          <t xml:space="preserve">Binu Augustine</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G59">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H59">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I59">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J59">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K59">
+        <is>
+          <t xml:space="preserve">.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="65">
+        <v>58</v>
+      </c>
+      <c t="inlineStr" r="B60">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C60">
+        <is>
           <t xml:space="preserve">tom</t>
         </is>
       </c>
-      <c r="D59" s="65">
+      <c r="D60" s="65">
         <v>8281692848</v>
       </c>
-      <c t="inlineStr" r="E59">
+      <c t="inlineStr" r="E60">
         <is>
           <t xml:space="preserve">03-01-2026</t>
         </is>
       </c>
-      <c t="inlineStr" r="F59">
+      <c t="inlineStr" r="F60">
         <is>
           <t xml:space="preserve">Binu Augustine</t>
         </is>
       </c>
-      <c t="inlineStr" r="G59">
-        <is>
-          <t xml:space="preserve">Loss</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H59">
+      <c t="inlineStr" r="G60">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H60">
         <is>
           <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
-      <c t="inlineStr" r="I59">
+      <c t="inlineStr" r="I60">
         <is>
           <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
-      <c t="inlineStr" r="J59">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K59">
+      <c t="inlineStr" r="J60">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K60">
         <is>
           <t xml:space="preserve">.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="65">
+        <v>59</v>
+      </c>
+      <c t="inlineStr" r="B61">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C61">
+        <is>
+          <t xml:space="preserve">Madhav</t>
+        </is>
+      </c>
+      <c r="D61" s="65">
+        <v>6282156345</v>
+      </c>
+      <c t="inlineStr" r="E61">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F61">
+        <is>
+          <t xml:space="preserve">Althaf A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G61">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H61">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I61">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J61">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K61">
+        <is>
+          <t xml:space="preserve">black size 38 required</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="65">
+        <v>60</v>
+      </c>
+      <c t="inlineStr" r="B62">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C62">
+        <is>
+          <t xml:space="preserve">Tony</t>
+        </is>
+      </c>
+      <c r="D62" s="65">
+        <v>8075613454</v>
+      </c>
+      <c t="inlineStr" r="E62">
+        <is>
+          <t xml:space="preserve">14-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F62">
+        <is>
+          <t xml:space="preserve">Althaf A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G62">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H62">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I62">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J62">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K62">
+        <is>
+          <t xml:space="preserve">customer required date product is not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="65">
+        <v>61</v>
+      </c>
+      <c t="inlineStr" r="B63">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C63">
+        <is>
+          <t xml:space="preserve">noyal</t>
+        </is>
+      </c>
+      <c r="D63" s="65">
+        <v>7034875397</v>
+      </c>
+      <c t="inlineStr" r="E63">
+        <is>
+          <t xml:space="preserve">10-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F63">
+        <is>
+          <t xml:space="preserve">AKSHAYDAS.M</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G63">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H63">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I63">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J63">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K63">
+        <is>
+          <t xml:space="preserve">..</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="65">
+        <v>62</v>
+      </c>
+      <c t="inlineStr" r="B64">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C64">
+        <is>
+          <t xml:space="preserve">shahul</t>
+        </is>
+      </c>
+      <c r="D64" s="65">
+        <v>8921029730</v>
+      </c>
+      <c t="inlineStr" r="E64">
+        <is>
+          <t xml:space="preserve">18-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F64">
+        <is>
+          <t xml:space="preserve">AKSHAYDAS.M</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G64">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H64">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I64">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J64">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K64">
+        <is>
+          <t xml:space="preserve">..</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="65">
+        <v>63</v>
+      </c>
+      <c t="inlineStr" r="B65">
+        <is>
+          <t xml:space="preserve">23-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C65">
+        <is>
+          <t xml:space="preserve">Anandu</t>
+        </is>
+      </c>
+      <c r="D65" s="65">
+        <v>9526656855</v>
+      </c>
+      <c t="inlineStr" r="E65">
+        <is>
+          <t xml:space="preserve">08-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F65">
+        <is>
+          <t xml:space="preserve">Althaf A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G65">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H65">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I65">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J65">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K65">
+        <is>
+          <t xml:space="preserve">required 46 premium suit</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="65">
+        <v>64</v>
+      </c>
+      <c t="inlineStr" r="B66">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C66">
+        <is>
+          <t xml:space="preserve">Athul</t>
+        </is>
+      </c>
+      <c r="D66" s="65">
+        <v>9744852238</v>
+      </c>
+      <c t="inlineStr" r="E66">
+        <is>
+          <t xml:space="preserve">07-02-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F66">
+        <is>
+          <t xml:space="preserve">Althaf A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G66">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H66">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I66">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J66">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K66">
+        <is>
+          <t xml:space="preserve">required design and color not available ( black indowestern with stone work )</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="65">
+        <v>65</v>
+      </c>
+      <c t="inlineStr" r="B67">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C67">
+        <is>
+          <t xml:space="preserve">althaf</t>
+        </is>
+      </c>
+      <c r="D67" s="65">
+        <v>9656287663</v>
+      </c>
+      <c t="inlineStr" r="E67">
+        <is>
+          <t xml:space="preserve">11-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F67">
+        <is>
+          <t xml:space="preserve">ABIN KRISHNA S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G67">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H67">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I67">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J67">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K67">
+        <is>
+          <t xml:space="preserve">enquiry</t>
         </is>
       </c>
     </row>
